--- a/data-raw/raw/AFCD_nutrient_key_work.xlsx
+++ b/data-raw/raw/AFCD_nutrient_key_work.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/AFCD/data-raw/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/BFA_Papers/BFA_Nutrition/AFCD/data-raw/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FDF0C6-E68D-7649-A0AB-FA684DDEA49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594EE551-269F-D741-BEFA-038F42B828C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="500" windowWidth="26260" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29840" yWindow="-5960" windowWidth="28220" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFCD_nutrient_key_work" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AFCD_nutrient_key_work!$A$1:$F$326</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AFCD_nutrient_key_work!$A$1:$F$324</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="931">
   <si>
     <t>nutrient_orig</t>
   </si>
@@ -139,12 +139,6 @@
     <t>ASP</t>
   </si>
   <si>
-    <t>Aspartic_acid_1</t>
-  </si>
-  <si>
-    <t>Aspartic acid 1</t>
-  </si>
-  <si>
     <t>Astaxanthin</t>
   </si>
   <si>
@@ -1732,12 +1726,6 @@
     <t>PYRXN</t>
   </si>
   <si>
-    <t>Pyridoxine_h_cl</t>
-  </si>
-  <si>
-    <t>Pyridoxine h cl</t>
-  </si>
-  <si>
     <t>Retinol</t>
   </si>
   <si>
@@ -1768,9 +1756,6 @@
     <t>NACL</t>
   </si>
   <si>
-    <t>Saponins</t>
-  </si>
-  <si>
     <t>Selenium</t>
   </si>
   <si>
@@ -2029,9 +2014,6 @@
     <t>Vitamin_c_method_unknown_or_variable</t>
   </si>
   <si>
-    <t>Vitamin_d</t>
-  </si>
-  <si>
     <t>Vitamin_d_d2_d3</t>
   </si>
   <si>
@@ -2524,9 +2506,6 @@
     <t>Vitamin C</t>
   </si>
   <si>
-    <t>Vitamin D</t>
-  </si>
-  <si>
     <t>Wax, total</t>
   </si>
   <si>
@@ -2572,9 +2551,6 @@
     <t>Other macronutrient</t>
   </si>
   <si>
-    <t>Steroid</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -2675,13 +2651,178 @@
   </si>
   <si>
     <t>Vitamin A; sum of retinol/carotenoids</t>
+  </si>
+  <si>
+    <t>Glutamine + gluamic acid</t>
+  </si>
+  <si>
+    <t>CARTBEQ</t>
+  </si>
+  <si>
+    <t>CARTB</t>
+  </si>
+  <si>
+    <t>Beta-carotene equivalent</t>
+  </si>
+  <si>
+    <t>TOCPHA</t>
+  </si>
+  <si>
+    <t>CARTA</t>
+  </si>
+  <si>
+    <t>All-trans alpha-carotene only</t>
+  </si>
+  <si>
+    <t>Vitamin D with unknown methods</t>
+  </si>
+  <si>
+    <t>Vitamin C with unknown methods</t>
+  </si>
+  <si>
+    <t>Vitamin A with unknown methods</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>Nitrogen total</t>
+  </si>
+  <si>
+    <t>NNP</t>
+  </si>
+  <si>
+    <t>Non-protein nitrogen</t>
+  </si>
+  <si>
+    <t>Pyridoxine hydrochloride</t>
+  </si>
+  <si>
+    <t>PYRXNHCL</t>
+  </si>
+  <si>
+    <t>Pyridoxine_hcl</t>
+  </si>
+  <si>
+    <t>SQUAL</t>
+  </si>
+  <si>
+    <t>CAMT</t>
+  </si>
+  <si>
+    <t>Total campesterol</t>
+  </si>
+  <si>
+    <t>pH hydrogen ion concentration</t>
+  </si>
+  <si>
+    <t>AAE-</t>
+  </si>
+  <si>
+    <t>AANE</t>
+  </si>
+  <si>
+    <t>AAT-</t>
+  </si>
+  <si>
+    <t>AAS</t>
+  </si>
+  <si>
+    <t>ORN</t>
+  </si>
+  <si>
+    <t>ALA_A_ARG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIOLX </t>
+  </si>
+  <si>
+    <t>Sterol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS </t>
+  </si>
+  <si>
+    <t>VITC-</t>
+  </si>
+  <si>
+    <t>Vitamin_d_method_unknown_or_variable</t>
+  </si>
+  <si>
+    <t>Vitamin D; unknown/variable methods</t>
+  </si>
+  <si>
+    <t>VITD-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VITK1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VITA- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THIAHCL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIA- </t>
+  </si>
+  <si>
+    <t>Niacin; mehtod or form unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOL- </t>
+  </si>
+  <si>
+    <t>Folate; method unknown or variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETOLDH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STGSTR </t>
+  </si>
+  <si>
+    <t>Stigmasterol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOLEST </t>
+  </si>
+  <si>
+    <t>Cholesteryl-ester, total</t>
+  </si>
+  <si>
+    <t>PROT-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEOX </t>
+  </si>
+  <si>
+    <t>FLAVD</t>
+  </si>
+  <si>
+    <t>FIBTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLU_A_HIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARTOID </t>
+  </si>
+  <si>
+    <t>NPRO</t>
+  </si>
+  <si>
+    <t>Nitrogen protein</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2819,6 +2960,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3165,10 +3313,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3525,19 +3674,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F326"/>
+  <dimension ref="A1:F324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C309" sqref="C309"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="159" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="118.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="129" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3546,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3566,7 +3715,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -3586,19 +3735,19 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C3" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
+        <v>685</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3606,7 +3755,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -3626,10 +3775,10 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C5" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -3646,7 +3795,7 @@
         <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>35</v>
@@ -3662,74 +3811,74 @@
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>840</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>460</v>
       </c>
       <c r="B8" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>460</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>461</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B9" t="s">
+        <v>840</v>
+      </c>
+      <c r="C9" t="s">
+        <v>876</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B10" t="s">
+        <v>840</v>
+      </c>
+      <c r="C10" t="s">
         <v>847</v>
-      </c>
-      <c r="C9" t="s">
-        <v>462</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>463</v>
-      </c>
-      <c r="F9" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>465</v>
-      </c>
-      <c r="B10" t="s">
-        <v>847</v>
-      </c>
-      <c r="C10" t="s">
-        <v>855</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -3743,62 +3892,62 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B11" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C11" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
+        <v>848</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>466</v>
+      </c>
+      <c r="B12" t="s">
+        <v>840</v>
+      </c>
+      <c r="C12" t="s">
+        <v>466</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
         <v>467</v>
       </c>
-      <c r="B12" t="s">
-        <v>847</v>
-      </c>
-      <c r="C12" t="s">
-        <v>856</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B13" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C13" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F13" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3806,219 +3955,219 @@
         <v>473</v>
       </c>
       <c r="B14" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C14" t="s">
         <v>473</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>473</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>474</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>474</v>
+      </c>
+      <c r="B15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C15" t="s">
+        <v>474</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>474</v>
+      </c>
+      <c r="F15" t="s">
         <v>475</v>
       </c>
-      <c r="B15" t="s">
-        <v>847</v>
-      </c>
-      <c r="C15" t="s">
-        <v>475</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="B16" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C16" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="F16" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B17" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C17" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="F17" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B18" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C18" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="F18" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="B19" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C19" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="F19" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="B20" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C20" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="F20" t="s">
-        <v>509</v>
+        <v>901</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="B21" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C21" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>538</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="B22" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C22" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="F22" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="B23" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C23" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
       <c r="F23" t="s">
-        <v>557</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="B24" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C24" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
       <c r="F24" t="s">
-        <v>586</v>
+        <v>609</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -4026,7 +4175,7 @@
         <v>613</v>
       </c>
       <c r="B25" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C25" t="s">
         <v>613</v>
@@ -4035,130 +4184,130 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>618</v>
-      </c>
-      <c r="B26" t="s">
-        <v>847</v>
-      </c>
-      <c r="C26" t="s">
-        <v>618</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E26" t="s">
-        <v>619</v>
-      </c>
-      <c r="F26" t="s">
-        <v>620</v>
+      <c r="E26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>10</v>
+        <v>898</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>10</v>
+        <v>899</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>21</v>
+      <c r="A29" t="s">
+        <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>10</v>
+        <v>840</v>
+      </c>
+      <c r="C29" t="s">
+        <v>849</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>847</v>
+        <v>624</v>
+      </c>
+      <c r="B30" t="s">
+        <v>840</v>
       </c>
       <c r="C30" t="s">
-        <v>857</v>
+        <v>624</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>625</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>626</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B31" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C31" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F31" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -4166,7 +4315,7 @@
         <v>632</v>
       </c>
       <c r="B32" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C32" t="s">
         <v>632</v>
@@ -4183,450 +4332,450 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>637</v>
+        <v>456</v>
       </c>
       <c r="B33" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C33" t="s">
-        <v>637</v>
+        <v>457</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>638</v>
+        <v>458</v>
       </c>
       <c r="F33" t="s">
-        <v>639</v>
+        <v>459</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>458</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="C34" t="s">
-        <v>459</v>
+        <v>693</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>460</v>
+        <v>54</v>
       </c>
       <c r="F34" t="s">
-        <v>461</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="C35" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D35" t="s">
         <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="C36" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="D36" t="s">
         <v>31</v>
       </c>
       <c r="E36" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="C37" t="s">
-        <v>700</v>
+        <v>61</v>
       </c>
       <c r="D37" t="s">
         <v>31</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>469</v>
       </c>
       <c r="B38" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>469</v>
       </c>
       <c r="D38" t="s">
         <v>31</v>
       </c>
       <c r="E38" t="s">
-        <v>63</v>
+        <v>469</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>470</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>471</v>
+        <v>548</v>
       </c>
       <c r="B39" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="C39" t="s">
-        <v>471</v>
+        <v>853</v>
       </c>
       <c r="D39" t="s">
         <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>471</v>
+        <v>549</v>
       </c>
       <c r="F39" t="s">
-        <v>472</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>550</v>
+        <v>589</v>
       </c>
       <c r="B40" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="C40" t="s">
-        <v>861</v>
+        <v>815</v>
       </c>
       <c r="D40" t="s">
         <v>31</v>
       </c>
       <c r="E40" t="s">
-        <v>551</v>
+        <v>590</v>
       </c>
       <c r="F40" t="s">
-        <v>552</v>
+        <v>591</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>594</v>
+        <v>453</v>
       </c>
       <c r="B41" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="C41" t="s">
-        <v>821</v>
+        <v>453</v>
       </c>
       <c r="D41" t="s">
         <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>595</v>
+        <v>454</v>
       </c>
       <c r="F41" t="s">
-        <v>596</v>
+        <v>455</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>455</v>
+        <v>574</v>
       </c>
       <c r="B42" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="C42" t="s">
-        <v>455</v>
+        <v>574</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>456</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>457</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="B43" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="C43" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>598</v>
       </c>
       <c r="F43" t="s">
-        <v>10</v>
+        <v>599</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B44" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="C44" t="s">
-        <v>603</v>
+        <v>818</v>
       </c>
       <c r="D44" t="s">
         <v>31</v>
       </c>
       <c r="E44" t="s">
-        <v>603</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>605</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="C45" t="s">
-        <v>824</v>
+        <v>686</v>
       </c>
       <c r="D45" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>882</v>
       </c>
       <c r="F45" t="s">
-        <v>606</v>
+        <v>881</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="C46" t="s">
-        <v>692</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" t="s">
-        <v>10</v>
+        <v>38</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>689</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>689</v>
       </c>
       <c r="F47" t="s">
-        <v>10</v>
+        <v>878</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="C48" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>879</v>
       </c>
       <c r="F48" t="s">
-        <v>10</v>
+        <v>877</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="C49" t="s">
         <v>696</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" t="s">
-        <v>10</v>
+        <v>696</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>620</v>
       </c>
       <c r="B50" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="C50" t="s">
-        <v>702</v>
+        <v>821</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>821</v>
       </c>
       <c r="F50" t="s">
-        <v>10</v>
+        <v>925</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>625</v>
+        <v>494</v>
       </c>
       <c r="B51" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="C51" t="s">
-        <v>827</v>
+        <v>494</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>494</v>
       </c>
       <c r="F51" t="s">
-        <v>10</v>
+        <v>495</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="B52" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="C52" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="D52" t="s">
         <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>496</v>
-      </c>
-      <c r="F52" t="s">
-        <v>497</v>
+        <v>513</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>515</v>
+        <v>681</v>
       </c>
       <c r="B53" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="C53" t="s">
-        <v>515</v>
+        <v>681</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>681</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
+        <v>682</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>687</v>
+      <c r="A54" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>846</v>
-      </c>
-      <c r="C54" t="s">
-        <v>687</v>
-      </c>
-      <c r="D54" t="s">
+        <v>843</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E54" t="s">
-        <v>687</v>
-      </c>
-      <c r="F54" t="s">
-        <v>688</v>
+      <c r="E54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>17</v>
@@ -4635,90 +4784,90 @@
         <v>14</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>17</v>
+      <c r="A56" t="s">
+        <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>851</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>16</v>
+      <c r="E56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D57" t="s">
         <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B58" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D58" t="s">
         <v>14</v>
       </c>
       <c r="E58" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B59" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D59" t="s">
         <v>14</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4726,7 +4875,7 @@
         <v>48</v>
       </c>
       <c r="B60" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C60" t="s">
         <v>48</v>
@@ -4746,13 +4895,13 @@
         <v>50</v>
       </c>
       <c r="B61" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C61" t="s">
         <v>50</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E61" t="s">
         <v>50</v>
@@ -4763,62 +4912,62 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C62" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D62" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>52</v>
-      </c>
-      <c r="F62" t="s">
-        <v>53</v>
+        <v>63</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>843</v>
+      </c>
+      <c r="C63" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" t="s">
         <v>65</v>
       </c>
-      <c r="B63" t="s">
-        <v>851</v>
-      </c>
-      <c r="C63" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" t="s">
-        <v>10</v>
-      </c>
       <c r="F63" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D64" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F64" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4826,7 +4975,7 @@
         <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C65" t="s">
         <v>80</v>
@@ -4843,62 +4992,62 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C66" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E66" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F66" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>446</v>
       </c>
       <c r="B67" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
+        <v>446</v>
       </c>
       <c r="D67" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E67" t="s">
-        <v>86</v>
+        <v>447</v>
       </c>
       <c r="F67" t="s">
-        <v>87</v>
+        <v>448</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="B68" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C68" t="s">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>449</v>
+        <v>476</v>
       </c>
       <c r="F68" t="s">
-        <v>450</v>
+        <v>477</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4906,79 +5055,79 @@
         <v>478</v>
       </c>
       <c r="B69" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C69" t="s">
-        <v>478</v>
+        <v>805</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E69" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F69" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="B70" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C70" t="s">
-        <v>811</v>
+        <v>487</v>
       </c>
       <c r="D70" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E70" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="F70" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B71" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C71" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D71" t="s">
         <v>14</v>
       </c>
       <c r="E71" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F71" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B72" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C72" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E72" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="F72" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4986,13 +5135,13 @@
         <v>501</v>
       </c>
       <c r="B73" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C73" t="s">
         <v>501</v>
       </c>
       <c r="D73" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E73" t="s">
         <v>501</v>
@@ -5006,7 +5155,7 @@
         <v>503</v>
       </c>
       <c r="B74" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C74" t="s">
         <v>503</v>
@@ -5023,42 +5172,42 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B75" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C75" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D75" t="s">
         <v>14</v>
       </c>
       <c r="E75" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F75" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="B76" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C76" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="D76" t="s">
         <v>14</v>
       </c>
       <c r="E76" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="F76" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -5066,139 +5215,139 @@
         <v>523</v>
       </c>
       <c r="B77" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="C77" t="s">
-        <v>523</v>
+        <v>809</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E77" t="s">
-        <v>523</v>
+        <v>889</v>
       </c>
       <c r="F77" t="s">
-        <v>524</v>
+        <v>888</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B78" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="C78" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" t="s">
-        <v>10</v>
+        <v>930</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B79" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="C79" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>887</v>
       </c>
       <c r="F79" t="s">
-        <v>10</v>
+        <v>886</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="B80" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C80" t="s">
-        <v>817</v>
+        <v>543</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>543</v>
       </c>
       <c r="F80" t="s">
-        <v>10</v>
+        <v>544</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B81" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C81" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="D81" t="s">
         <v>6</v>
       </c>
       <c r="E81" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="F81" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="B82" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C82" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="D82" t="s">
         <v>6</v>
       </c>
       <c r="E82" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="F82" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B83" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C83" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D83" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E83" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F83" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -5206,7 +5355,7 @@
         <v>582</v>
       </c>
       <c r="B84" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C84" t="s">
         <v>582</v>
@@ -5226,236 +5375,236 @@
         <v>587</v>
       </c>
       <c r="B85" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C85" t="s">
         <v>587</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E85" t="s">
         <v>587</v>
       </c>
       <c r="F85" t="s">
-        <v>588</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="B86" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C86" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D86" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E86" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="F86" t="s">
-        <v>10</v>
+        <v>597</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B87" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C87" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E87" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F87" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="B88" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C88" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="D88" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E88" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="F88" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B89" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C89" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E89" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F89" t="s">
-        <v>622</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="B90" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C90" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="D90" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="F90" t="s">
-        <v>10</v>
+        <v>636</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>640</v>
+        <v>683</v>
       </c>
       <c r="B91" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C91" t="s">
-        <v>640</v>
+        <v>683</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E91" t="s">
-        <v>640</v>
+        <v>683</v>
       </c>
       <c r="F91" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>689</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>851</v>
+        <v>833</v>
       </c>
       <c r="C92" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="D92" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E92" t="s">
-        <v>689</v>
+        <v>91</v>
       </c>
       <c r="F92" t="s">
-        <v>690</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="B93" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C93" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D93" t="s">
         <v>31</v>
       </c>
       <c r="E93" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="F93" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B94" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C94" t="s">
-        <v>707</v>
+        <v>845</v>
       </c>
       <c r="D94" t="s">
         <v>31</v>
       </c>
       <c r="E94" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F94" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B95" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C95" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="D95" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F95" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B96" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C96" t="s">
-        <v>852</v>
+        <v>122</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E96" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F96" t="s">
         <v>10</v>
@@ -5466,7 +5615,7 @@
         <v>123</v>
       </c>
       <c r="B97" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C97" t="s">
         <v>124</v>
@@ -5486,7 +5635,7 @@
         <v>125</v>
       </c>
       <c r="B98" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C98" t="s">
         <v>126</v>
@@ -5506,7 +5655,7 @@
         <v>127</v>
       </c>
       <c r="B99" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C99" t="s">
         <v>128</v>
@@ -5523,19 +5672,19 @@
     </row>
     <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B100" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C100" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D100" t="s">
         <v>31</v>
       </c>
       <c r="E100" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F100" t="s">
         <v>10</v>
@@ -5546,7 +5695,7 @@
         <v>133</v>
       </c>
       <c r="B101" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C101" t="s">
         <v>134</v>
@@ -5566,10 +5715,10 @@
         <v>135</v>
       </c>
       <c r="B102" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C102" t="s">
-        <v>136</v>
+        <v>702</v>
       </c>
       <c r="D102" t="s">
         <v>31</v>
@@ -5586,10 +5735,10 @@
         <v>137</v>
       </c>
       <c r="B103" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C103" t="s">
-        <v>708</v>
+        <v>138</v>
       </c>
       <c r="D103" t="s">
         <v>31</v>
@@ -5606,10 +5755,10 @@
         <v>139</v>
       </c>
       <c r="B104" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C104" t="s">
-        <v>140</v>
+        <v>703</v>
       </c>
       <c r="D104" t="s">
         <v>31</v>
@@ -5626,10 +5775,10 @@
         <v>141</v>
       </c>
       <c r="B105" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C105" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D105" t="s">
         <v>31</v>
@@ -5646,10 +5795,10 @@
         <v>143</v>
       </c>
       <c r="B106" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C106" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D106" t="s">
         <v>31</v>
@@ -5666,10 +5815,10 @@
         <v>145</v>
       </c>
       <c r="B107" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C107" t="s">
-        <v>711</v>
+        <v>146</v>
       </c>
       <c r="D107" t="s">
         <v>31</v>
@@ -5686,10 +5835,10 @@
         <v>147</v>
       </c>
       <c r="B108" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C108" t="s">
-        <v>148</v>
+        <v>706</v>
       </c>
       <c r="D108" t="s">
         <v>31</v>
@@ -5706,10 +5855,10 @@
         <v>149</v>
       </c>
       <c r="B109" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C109" t="s">
-        <v>712</v>
+        <v>150</v>
       </c>
       <c r="D109" t="s">
         <v>31</v>
@@ -5726,7 +5875,7 @@
         <v>151</v>
       </c>
       <c r="B110" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C110" t="s">
         <v>152</v>
@@ -5746,10 +5895,10 @@
         <v>153</v>
       </c>
       <c r="B111" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C111" t="s">
-        <v>154</v>
+        <v>707</v>
       </c>
       <c r="D111" t="s">
         <v>31</v>
@@ -5766,10 +5915,10 @@
         <v>155</v>
       </c>
       <c r="B112" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C112" t="s">
-        <v>713</v>
+        <v>156</v>
       </c>
       <c r="D112" t="s">
         <v>31</v>
@@ -5786,36 +5935,36 @@
         <v>157</v>
       </c>
       <c r="B113" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C113" t="s">
+        <v>708</v>
+      </c>
+      <c r="D113" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>158</v>
       </c>
-      <c r="D113" t="s">
-        <v>31</v>
-      </c>
-      <c r="E113" t="s">
-        <v>158</v>
-      </c>
-      <c r="F113" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="B114" t="s">
+        <v>833</v>
+      </c>
+      <c r="C114" t="s">
+        <v>709</v>
+      </c>
+      <c r="D114" t="s">
+        <v>31</v>
+      </c>
+      <c r="E114" t="s">
         <v>159</v>
-      </c>
-      <c r="B114" t="s">
-        <v>840</v>
-      </c>
-      <c r="C114" t="s">
-        <v>714</v>
-      </c>
-      <c r="D114" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114" t="s">
-        <v>10</v>
       </c>
       <c r="F114" t="s">
         <v>10</v>
@@ -5826,10 +5975,10 @@
         <v>160</v>
       </c>
       <c r="B115" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C115" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D115" t="s">
         <v>31</v>
@@ -5841,15 +5990,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>162</v>
       </c>
       <c r="B116" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C116" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="D116" t="s">
         <v>31</v>
@@ -5866,10 +6015,10 @@
         <v>164</v>
       </c>
       <c r="B117" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C117" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D117" t="s">
         <v>31</v>
@@ -5886,10 +6035,10 @@
         <v>166</v>
       </c>
       <c r="B118" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C118" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D118" t="s">
         <v>31</v>
@@ -5906,10 +6055,10 @@
         <v>168</v>
       </c>
       <c r="B119" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C119" t="s">
-        <v>719</v>
+        <v>169</v>
       </c>
       <c r="D119" t="s">
         <v>31</v>
@@ -5926,10 +6075,10 @@
         <v>170</v>
       </c>
       <c r="B120" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C120" t="s">
-        <v>171</v>
+        <v>714</v>
       </c>
       <c r="D120" t="s">
         <v>31</v>
@@ -5946,10 +6095,10 @@
         <v>172</v>
       </c>
       <c r="B121" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C121" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="D121" t="s">
         <v>31</v>
@@ -5966,10 +6115,10 @@
         <v>174</v>
       </c>
       <c r="B122" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C122" t="s">
-        <v>721</v>
+        <v>175</v>
       </c>
       <c r="D122" t="s">
         <v>31</v>
@@ -5986,10 +6135,10 @@
         <v>176</v>
       </c>
       <c r="B123" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C123" t="s">
-        <v>177</v>
+        <v>716</v>
       </c>
       <c r="D123" t="s">
         <v>31</v>
@@ -6006,10 +6155,10 @@
         <v>178</v>
       </c>
       <c r="B124" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C124" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D124" t="s">
         <v>31</v>
@@ -6026,10 +6175,10 @@
         <v>180</v>
       </c>
       <c r="B125" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C125" t="s">
-        <v>723</v>
+        <v>181</v>
       </c>
       <c r="D125" t="s">
         <v>31</v>
@@ -6046,10 +6195,10 @@
         <v>182</v>
       </c>
       <c r="B126" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C126" t="s">
-        <v>183</v>
+        <v>718</v>
       </c>
       <c r="D126" t="s">
         <v>31</v>
@@ -6066,10 +6215,10 @@
         <v>184</v>
       </c>
       <c r="B127" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C127" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="D127" t="s">
         <v>31</v>
@@ -6086,10 +6235,10 @@
         <v>186</v>
       </c>
       <c r="B128" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C128" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D128" t="s">
         <v>31</v>
@@ -6106,10 +6255,10 @@
         <v>188</v>
       </c>
       <c r="B129" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C129" t="s">
-        <v>726</v>
+        <v>189</v>
       </c>
       <c r="D129" t="s">
         <v>31</v>
@@ -6126,10 +6275,10 @@
         <v>190</v>
       </c>
       <c r="B130" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C130" t="s">
-        <v>191</v>
+        <v>721</v>
       </c>
       <c r="D130" t="s">
         <v>31</v>
@@ -6146,10 +6295,10 @@
         <v>192</v>
       </c>
       <c r="B131" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C131" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D131" t="s">
         <v>31</v>
@@ -6166,10 +6315,10 @@
         <v>194</v>
       </c>
       <c r="B132" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C132" t="s">
-        <v>728</v>
+        <v>195</v>
       </c>
       <c r="D132" t="s">
         <v>31</v>
@@ -6186,10 +6335,10 @@
         <v>196</v>
       </c>
       <c r="B133" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C133" t="s">
-        <v>197</v>
+        <v>723</v>
       </c>
       <c r="D133" t="s">
         <v>31</v>
@@ -6206,10 +6355,10 @@
         <v>198</v>
       </c>
       <c r="B134" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C134" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D134" t="s">
         <v>31</v>
@@ -6226,10 +6375,10 @@
         <v>200</v>
       </c>
       <c r="B135" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C135" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="D135" t="s">
         <v>31</v>
@@ -6246,10 +6395,10 @@
         <v>202</v>
       </c>
       <c r="B136" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C136" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D136" t="s">
         <v>31</v>
@@ -6263,19 +6412,19 @@
     </row>
     <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="B137" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C137" t="s">
-        <v>732</v>
+        <v>225</v>
       </c>
       <c r="D137" t="s">
         <v>31</v>
       </c>
       <c r="E137" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F137" t="s">
         <v>10</v>
@@ -6286,7 +6435,7 @@
         <v>226</v>
       </c>
       <c r="B138" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C138" t="s">
         <v>227</v>
@@ -6295,7 +6444,7 @@
         <v>31</v>
       </c>
       <c r="E138" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="F138" t="s">
         <v>10</v>
@@ -6303,19 +6452,19 @@
     </row>
     <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="B139" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C139" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D139" t="s">
         <v>31</v>
       </c>
       <c r="E139" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="F139" t="s">
         <v>10</v>
@@ -6326,10 +6475,10 @@
         <v>206</v>
       </c>
       <c r="B140" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C140" t="s">
-        <v>207</v>
+        <v>727</v>
       </c>
       <c r="D140" t="s">
         <v>31</v>
@@ -6346,10 +6495,10 @@
         <v>208</v>
       </c>
       <c r="B141" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C141" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="D141" t="s">
         <v>31</v>
@@ -6366,10 +6515,10 @@
         <v>210</v>
       </c>
       <c r="B142" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C142" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="D142" t="s">
         <v>31</v>
@@ -6386,10 +6535,10 @@
         <v>212</v>
       </c>
       <c r="B143" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C143" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D143" t="s">
         <v>31</v>
@@ -6406,10 +6555,10 @@
         <v>214</v>
       </c>
       <c r="B144" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C144" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D144" t="s">
         <v>31</v>
@@ -6426,13 +6575,13 @@
         <v>216</v>
       </c>
       <c r="B145" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C145" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="D145" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
         <v>217</v>
@@ -6446,13 +6595,13 @@
         <v>218</v>
       </c>
       <c r="B146" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C146" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E146" t="s">
         <v>219</v>
@@ -6466,10 +6615,10 @@
         <v>220</v>
       </c>
       <c r="B147" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C147" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D147" t="s">
         <v>31</v>
@@ -6486,10 +6635,10 @@
         <v>222</v>
       </c>
       <c r="B148" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C148" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D148" t="s">
         <v>31</v>
@@ -6503,19 +6652,19 @@
     </row>
     <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B149" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C149" t="s">
-        <v>741</v>
+        <v>230</v>
       </c>
       <c r="D149" t="s">
         <v>31</v>
       </c>
       <c r="E149" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F149" t="s">
         <v>10</v>
@@ -6526,10 +6675,10 @@
         <v>231</v>
       </c>
       <c r="B150" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C150" t="s">
-        <v>232</v>
+        <v>736</v>
       </c>
       <c r="D150" t="s">
         <v>31</v>
@@ -6546,10 +6695,10 @@
         <v>233</v>
       </c>
       <c r="B151" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C151" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D151" t="s">
         <v>31</v>
@@ -6566,10 +6715,10 @@
         <v>235</v>
       </c>
       <c r="B152" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C152" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D152" t="s">
         <v>31</v>
@@ -6582,22 +6731,22 @@
       </c>
     </row>
     <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+      <c r="A153" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B153" t="s">
-        <v>840</v>
-      </c>
-      <c r="C153" t="s">
-        <v>744</v>
-      </c>
-      <c r="D153" t="s">
-        <v>31</v>
-      </c>
-      <c r="E153" t="s">
+      <c r="B153" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E153" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6606,38 +6755,38 @@
         <v>239</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E154" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
         <v>240</v>
       </c>
-      <c r="F154" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
+      <c r="B155" t="s">
+        <v>833</v>
+      </c>
+      <c r="C155" t="s">
+        <v>741</v>
+      </c>
+      <c r="D155" t="s">
+        <v>31</v>
+      </c>
+      <c r="E155" t="s">
         <v>241</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F155" s="1" t="s">
+      <c r="F155" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6646,10 +6795,10 @@
         <v>242</v>
       </c>
       <c r="B156" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C156" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D156" t="s">
         <v>31</v>
@@ -6666,10 +6815,10 @@
         <v>244</v>
       </c>
       <c r="B157" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C157" t="s">
-        <v>748</v>
+        <v>245</v>
       </c>
       <c r="D157" t="s">
         <v>31</v>
@@ -6686,10 +6835,10 @@
         <v>246</v>
       </c>
       <c r="B158" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C158" t="s">
-        <v>247</v>
+        <v>743</v>
       </c>
       <c r="D158" t="s">
         <v>31</v>
@@ -6706,10 +6855,10 @@
         <v>248</v>
       </c>
       <c r="B159" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C159" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="D159" t="s">
         <v>31</v>
@@ -6726,10 +6875,10 @@
         <v>250</v>
       </c>
       <c r="B160" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C160" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D160" t="s">
         <v>31</v>
@@ -6746,10 +6895,10 @@
         <v>252</v>
       </c>
       <c r="B161" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C161" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="D161" t="s">
         <v>31</v>
@@ -6766,10 +6915,10 @@
         <v>254</v>
       </c>
       <c r="B162" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C162" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D162" t="s">
         <v>31</v>
@@ -6786,10 +6935,10 @@
         <v>256</v>
       </c>
       <c r="B163" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C163" t="s">
-        <v>753</v>
+        <v>257</v>
       </c>
       <c r="D163" t="s">
         <v>31</v>
@@ -6806,10 +6955,10 @@
         <v>258</v>
       </c>
       <c r="B164" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C164" t="s">
-        <v>259</v>
+        <v>748</v>
       </c>
       <c r="D164" t="s">
         <v>31</v>
@@ -6826,10 +6975,10 @@
         <v>260</v>
       </c>
       <c r="B165" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C165" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="D165" t="s">
         <v>31</v>
@@ -6846,10 +6995,10 @@
         <v>262</v>
       </c>
       <c r="B166" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C166" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="D166" t="s">
         <v>31</v>
@@ -6866,10 +7015,10 @@
         <v>264</v>
       </c>
       <c r="B167" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C167" t="s">
-        <v>756</v>
+        <v>265</v>
       </c>
       <c r="D167" t="s">
         <v>31</v>
@@ -6886,10 +7035,10 @@
         <v>266</v>
       </c>
       <c r="B168" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C168" t="s">
-        <v>267</v>
+        <v>751</v>
       </c>
       <c r="D168" t="s">
         <v>31</v>
@@ -6906,10 +7055,10 @@
         <v>268</v>
       </c>
       <c r="B169" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C169" t="s">
-        <v>757</v>
+        <v>269</v>
       </c>
       <c r="D169" t="s">
         <v>31</v>
@@ -6926,7 +7075,7 @@
         <v>270</v>
       </c>
       <c r="B170" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C170" t="s">
         <v>271</v>
@@ -6946,10 +7095,10 @@
         <v>272</v>
       </c>
       <c r="B171" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C171" t="s">
-        <v>273</v>
+        <v>752</v>
       </c>
       <c r="D171" t="s">
         <v>31</v>
@@ -6966,10 +7115,10 @@
         <v>274</v>
       </c>
       <c r="B172" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C172" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D172" t="s">
         <v>31</v>
@@ -6986,10 +7135,10 @@
         <v>276</v>
       </c>
       <c r="B173" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C173" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="D173" t="s">
         <v>31</v>
@@ -7006,10 +7155,10 @@
         <v>278</v>
       </c>
       <c r="B174" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C174" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="D174" t="s">
         <v>31</v>
@@ -7026,10 +7175,10 @@
         <v>280</v>
       </c>
       <c r="B175" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C175" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="D175" t="s">
         <v>31</v>
@@ -7046,16 +7195,16 @@
         <v>282</v>
       </c>
       <c r="B176" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C176" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D176" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="F176" t="s">
         <v>10</v>
@@ -7063,19 +7212,19 @@
     </row>
     <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>283</v>
+      </c>
+      <c r="B177" t="s">
+        <v>833</v>
+      </c>
+      <c r="C177" t="s">
         <v>284</v>
       </c>
-      <c r="B177" t="s">
-        <v>840</v>
-      </c>
-      <c r="C177" t="s">
-        <v>763</v>
-      </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E177" t="s">
-        <v>219</v>
+        <v>284</v>
       </c>
       <c r="F177" t="s">
         <v>10</v>
@@ -7086,10 +7235,10 @@
         <v>285</v>
       </c>
       <c r="B178" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C178" t="s">
-        <v>286</v>
+        <v>758</v>
       </c>
       <c r="D178" t="s">
         <v>31</v>
@@ -7106,10 +7255,10 @@
         <v>287</v>
       </c>
       <c r="B179" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C179" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="D179" t="s">
         <v>31</v>
@@ -7126,10 +7275,10 @@
         <v>289</v>
       </c>
       <c r="B180" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C180" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="D180" t="s">
         <v>31</v>
@@ -7146,10 +7295,10 @@
         <v>291</v>
       </c>
       <c r="B181" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C181" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D181" t="s">
         <v>31</v>
@@ -7166,10 +7315,10 @@
         <v>293</v>
       </c>
       <c r="B182" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C182" t="s">
-        <v>767</v>
+        <v>294</v>
       </c>
       <c r="D182" t="s">
         <v>31</v>
@@ -7186,10 +7335,10 @@
         <v>295</v>
       </c>
       <c r="B183" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C183" t="s">
-        <v>296</v>
+        <v>762</v>
       </c>
       <c r="D183" t="s">
         <v>31</v>
@@ -7206,10 +7355,10 @@
         <v>297</v>
       </c>
       <c r="B184" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C184" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="D184" t="s">
         <v>31</v>
@@ -7226,10 +7375,10 @@
         <v>299</v>
       </c>
       <c r="B185" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C185" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D185" t="s">
         <v>31</v>
@@ -7246,10 +7395,10 @@
         <v>301</v>
       </c>
       <c r="B186" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C186" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D186" t="s">
         <v>31</v>
@@ -7266,10 +7415,10 @@
         <v>303</v>
       </c>
       <c r="B187" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C187" t="s">
-        <v>771</v>
+        <v>304</v>
       </c>
       <c r="D187" t="s">
         <v>31</v>
@@ -7286,10 +7435,10 @@
         <v>305</v>
       </c>
       <c r="B188" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C188" t="s">
-        <v>306</v>
+        <v>766</v>
       </c>
       <c r="D188" t="s">
         <v>31</v>
@@ -7306,10 +7455,10 @@
         <v>307</v>
       </c>
       <c r="B189" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C189" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="D189" t="s">
         <v>31</v>
@@ -7326,10 +7475,10 @@
         <v>309</v>
       </c>
       <c r="B190" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C190" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="D190" t="s">
         <v>31</v>
@@ -7346,16 +7495,16 @@
         <v>311</v>
       </c>
       <c r="B191" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C191" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="D191" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>312</v>
+        <v>217</v>
       </c>
       <c r="F191" t="s">
         <v>10</v>
@@ -7363,19 +7512,19 @@
     </row>
     <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>312</v>
+      </c>
+      <c r="B192" t="s">
+        <v>833</v>
+      </c>
+      <c r="C192" t="s">
         <v>313</v>
       </c>
-      <c r="B192" t="s">
-        <v>840</v>
-      </c>
-      <c r="C192" t="s">
-        <v>775</v>
-      </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E192" t="s">
-        <v>219</v>
+        <v>313</v>
       </c>
       <c r="F192" t="s">
         <v>10</v>
@@ -7386,10 +7535,10 @@
         <v>314</v>
       </c>
       <c r="B193" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C193" t="s">
-        <v>315</v>
+        <v>828</v>
       </c>
       <c r="D193" t="s">
         <v>31</v>
@@ -7406,10 +7555,10 @@
         <v>316</v>
       </c>
       <c r="B194" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C194" t="s">
-        <v>835</v>
+        <v>770</v>
       </c>
       <c r="D194" t="s">
         <v>31</v>
@@ -7426,10 +7575,10 @@
         <v>318</v>
       </c>
       <c r="B195" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C195" t="s">
-        <v>776</v>
+        <v>319</v>
       </c>
       <c r="D195" t="s">
         <v>31</v>
@@ -7441,12 +7590,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>320</v>
       </c>
       <c r="B196" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C196" t="s">
         <v>321</v>
@@ -7461,15 +7610,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:6" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>322</v>
       </c>
       <c r="B197" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C197" t="s">
-        <v>323</v>
+        <v>771</v>
       </c>
       <c r="D197" t="s">
         <v>31</v>
@@ -7486,10 +7635,10 @@
         <v>324</v>
       </c>
       <c r="B198" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C198" t="s">
-        <v>777</v>
+        <v>325</v>
       </c>
       <c r="D198" t="s">
         <v>31</v>
@@ -7501,12 +7650,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>326</v>
       </c>
       <c r="B199" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C199" t="s">
         <v>327</v>
@@ -7521,15 +7670,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:6" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>328</v>
       </c>
       <c r="B200" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C200" t="s">
-        <v>329</v>
+        <v>772</v>
       </c>
       <c r="D200" t="s">
         <v>31</v>
@@ -7546,10 +7695,10 @@
         <v>330</v>
       </c>
       <c r="B201" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C201" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="D201" t="s">
         <v>31</v>
@@ -7566,10 +7715,10 @@
         <v>332</v>
       </c>
       <c r="B202" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C202" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="D202" t="s">
         <v>31</v>
@@ -7586,16 +7735,16 @@
         <v>334</v>
       </c>
       <c r="B203" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C203" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D203" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>335</v>
+        <v>217</v>
       </c>
       <c r="F203" t="s">
         <v>10</v>
@@ -7603,19 +7752,19 @@
     </row>
     <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
+        <v>335</v>
+      </c>
+      <c r="B204" t="s">
+        <v>833</v>
+      </c>
+      <c r="C204" t="s">
+        <v>776</v>
+      </c>
+      <c r="D204" t="s">
+        <v>31</v>
+      </c>
+      <c r="E204" t="s">
         <v>336</v>
-      </c>
-      <c r="B204" t="s">
-        <v>840</v>
-      </c>
-      <c r="C204" t="s">
-        <v>781</v>
-      </c>
-      <c r="D204" t="s">
-        <v>10</v>
-      </c>
-      <c r="E204" t="s">
-        <v>219</v>
       </c>
       <c r="F204" t="s">
         <v>10</v>
@@ -7626,10 +7775,10 @@
         <v>337</v>
       </c>
       <c r="B205" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C205" t="s">
-        <v>782</v>
+        <v>338</v>
       </c>
       <c r="D205" t="s">
         <v>31</v>
@@ -7646,10 +7795,10 @@
         <v>339</v>
       </c>
       <c r="B206" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C206" t="s">
-        <v>340</v>
+        <v>777</v>
       </c>
       <c r="D206" t="s">
         <v>31</v>
@@ -7666,10 +7815,10 @@
         <v>341</v>
       </c>
       <c r="B207" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C207" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="D207" t="s">
         <v>31</v>
@@ -7686,10 +7835,10 @@
         <v>343</v>
       </c>
       <c r="B208" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C208" t="s">
-        <v>784</v>
+        <v>344</v>
       </c>
       <c r="D208" t="s">
         <v>31</v>
@@ -7706,10 +7855,10 @@
         <v>345</v>
       </c>
       <c r="B209" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C209" t="s">
-        <v>346</v>
+        <v>779</v>
       </c>
       <c r="D209" t="s">
         <v>31</v>
@@ -7726,10 +7875,10 @@
         <v>347</v>
       </c>
       <c r="B210" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C210" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D210" t="s">
         <v>31</v>
@@ -7746,10 +7895,10 @@
         <v>349</v>
       </c>
       <c r="B211" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C211" t="s">
-        <v>786</v>
+        <v>350</v>
       </c>
       <c r="D211" t="s">
         <v>31</v>
@@ -7766,10 +7915,10 @@
         <v>351</v>
       </c>
       <c r="B212" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C212" t="s">
-        <v>352</v>
+        <v>781</v>
       </c>
       <c r="D212" t="s">
         <v>31</v>
@@ -7786,10 +7935,10 @@
         <v>353</v>
       </c>
       <c r="B213" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C213" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="D213" t="s">
         <v>31</v>
@@ -7806,10 +7955,10 @@
         <v>355</v>
       </c>
       <c r="B214" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C214" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="D214" t="s">
         <v>31</v>
@@ -7826,10 +7975,10 @@
         <v>357</v>
       </c>
       <c r="B215" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C215" t="s">
-        <v>789</v>
+        <v>358</v>
       </c>
       <c r="D215" t="s">
         <v>31</v>
@@ -7846,10 +7995,10 @@
         <v>359</v>
       </c>
       <c r="B216" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C216" t="s">
-        <v>360</v>
+        <v>784</v>
       </c>
       <c r="D216" t="s">
         <v>31</v>
@@ -7866,10 +8015,10 @@
         <v>361</v>
       </c>
       <c r="B217" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C217" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="D217" t="s">
         <v>31</v>
@@ -7886,10 +8035,10 @@
         <v>363</v>
       </c>
       <c r="B218" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C218" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="D218" t="s">
         <v>31</v>
@@ -7906,10 +8055,10 @@
         <v>365</v>
       </c>
       <c r="B219" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C219" t="s">
-        <v>792</v>
+        <v>366</v>
       </c>
       <c r="D219" t="s">
         <v>31</v>
@@ -7926,10 +8075,10 @@
         <v>367</v>
       </c>
       <c r="B220" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C220" t="s">
-        <v>368</v>
+        <v>787</v>
       </c>
       <c r="D220" t="s">
         <v>31</v>
@@ -7946,10 +8095,10 @@
         <v>369</v>
       </c>
       <c r="B221" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C221" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="D221" t="s">
         <v>31</v>
@@ -7966,10 +8115,10 @@
         <v>371</v>
       </c>
       <c r="B222" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C222" t="s">
-        <v>794</v>
+        <v>372</v>
       </c>
       <c r="D222" t="s">
         <v>31</v>
@@ -7983,19 +8132,19 @@
     </row>
     <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>373</v>
+        <v>129</v>
       </c>
       <c r="B223" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C223" t="s">
-        <v>374</v>
+        <v>130</v>
       </c>
       <c r="D223" t="s">
         <v>31</v>
       </c>
       <c r="E223" t="s">
-        <v>374</v>
+        <v>130</v>
       </c>
       <c r="F223" t="s">
         <v>10</v>
@@ -8003,19 +8152,19 @@
     </row>
     <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>131</v>
+        <v>373</v>
       </c>
       <c r="B224" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C224" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D224" t="s">
         <v>31</v>
       </c>
       <c r="E224" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F224" t="s">
         <v>10</v>
@@ -8023,19 +8172,19 @@
     </row>
     <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
+        <v>374</v>
+      </c>
+      <c r="B225" t="s">
+        <v>833</v>
+      </c>
+      <c r="C225" t="s">
         <v>375</v>
       </c>
-      <c r="B225" t="s">
-        <v>840</v>
-      </c>
-      <c r="C225" t="s">
-        <v>132</v>
-      </c>
       <c r="D225" t="s">
         <v>31</v>
       </c>
       <c r="E225" t="s">
-        <v>132</v>
+        <v>375</v>
       </c>
       <c r="F225" t="s">
         <v>10</v>
@@ -8046,10 +8195,10 @@
         <v>376</v>
       </c>
       <c r="B226" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C226" t="s">
-        <v>377</v>
+        <v>789</v>
       </c>
       <c r="D226" t="s">
         <v>31</v>
@@ -8066,10 +8215,10 @@
         <v>378</v>
       </c>
       <c r="B227" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C227" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D227" t="s">
         <v>31</v>
@@ -8086,10 +8235,10 @@
         <v>380</v>
       </c>
       <c r="B228" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C228" t="s">
-        <v>796</v>
+        <v>381</v>
       </c>
       <c r="D228" t="s">
         <v>31</v>
@@ -8106,7 +8255,7 @@
         <v>382</v>
       </c>
       <c r="B229" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C229" t="s">
         <v>383</v>
@@ -8126,7 +8275,7 @@
         <v>384</v>
       </c>
       <c r="B230" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C230" t="s">
         <v>385</v>
@@ -8146,7 +8295,7 @@
         <v>386</v>
       </c>
       <c r="B231" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C231" t="s">
         <v>387</v>
@@ -8166,7 +8315,7 @@
         <v>388</v>
       </c>
       <c r="B232" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C232" t="s">
         <v>389</v>
@@ -8186,7 +8335,7 @@
         <v>390</v>
       </c>
       <c r="B233" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C233" t="s">
         <v>391</v>
@@ -8206,7 +8355,7 @@
         <v>392</v>
       </c>
       <c r="B234" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C234" t="s">
         <v>393</v>
@@ -8226,50 +8375,50 @@
         <v>394</v>
       </c>
       <c r="B235" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C235" t="s">
         <v>395</v>
       </c>
       <c r="D235" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E235" t="s">
-        <v>395</v>
+        <v>10</v>
       </c>
       <c r="F235" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
+      <c r="A236" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B236" t="s">
-        <v>840</v>
-      </c>
-      <c r="C236" t="s">
-        <v>397</v>
-      </c>
-      <c r="D236" t="s">
-        <v>10</v>
-      </c>
-      <c r="E236" t="s">
-        <v>10</v>
-      </c>
-      <c r="F236" t="s">
+      <c r="B236" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F236" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>797</v>
+        <v>402</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>10</v>
@@ -8283,62 +8432,62 @@
     </row>
     <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
         <v>403</v>
       </c>
-      <c r="B238" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="C238" s="1" t="s">
+      <c r="B239" t="s">
+        <v>833</v>
+      </c>
+      <c r="C239" t="s">
         <v>404</v>
       </c>
-      <c r="D238" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F238" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F239" s="1" t="s">
-        <v>10</v>
+      <c r="D239" t="s">
+        <v>31</v>
+      </c>
+      <c r="E239" t="s">
+        <v>404</v>
+      </c>
+      <c r="F239" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B240" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C240" t="s">
-        <v>406</v>
+        <v>794</v>
       </c>
       <c r="D240" t="s">
         <v>31</v>
       </c>
       <c r="E240" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F240" t="s">
-        <v>407</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -8346,10 +8495,10 @@
         <v>408</v>
       </c>
       <c r="B241" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C241" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="D241" t="s">
         <v>31</v>
@@ -8358,107 +8507,107 @@
         <v>409</v>
       </c>
       <c r="F241" t="s">
-        <v>10</v>
+        <v>410</v>
       </c>
     </row>
     <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B242" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C242" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="D242" t="s">
         <v>31</v>
       </c>
       <c r="E242" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="F242" t="s">
-        <v>412</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="B243" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C243" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D243" t="s">
         <v>31</v>
       </c>
       <c r="E243" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="F243" t="s">
-        <v>10</v>
+        <v>413</v>
       </c>
     </row>
     <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="B244" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C244" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="D244" t="s">
         <v>31</v>
       </c>
       <c r="E244" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="F244" t="s">
-        <v>415</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="B245" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C245" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D245" t="s">
         <v>31</v>
       </c>
       <c r="E245" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="F245" t="s">
-        <v>10</v>
+        <v>416</v>
       </c>
     </row>
     <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B246" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C246" t="s">
-        <v>803</v>
+        <v>846</v>
       </c>
       <c r="D246" t="s">
         <v>31</v>
       </c>
       <c r="E246" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F246" t="s">
-        <v>418</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -8466,10 +8615,10 @@
         <v>419</v>
       </c>
       <c r="B247" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C247" t="s">
-        <v>854</v>
+        <v>798</v>
       </c>
       <c r="D247" t="s">
         <v>31</v>
@@ -8486,10 +8635,10 @@
         <v>421</v>
       </c>
       <c r="B248" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C248" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="D248" t="s">
         <v>31</v>
@@ -8498,167 +8647,167 @@
         <v>422</v>
       </c>
       <c r="F248" t="s">
-        <v>10</v>
+        <v>423</v>
       </c>
     </row>
     <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B249" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C249" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="D249" t="s">
         <v>31</v>
       </c>
       <c r="E249" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F249" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B250" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C250" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="D250" t="s">
         <v>31</v>
       </c>
       <c r="E250" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F250" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>429</v>
+        <v>510</v>
       </c>
       <c r="B251" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C251" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D251" t="s">
         <v>31</v>
       </c>
       <c r="E251" t="s">
-        <v>430</v>
+        <v>511</v>
       </c>
       <c r="F251" t="s">
-        <v>431</v>
+        <v>512</v>
       </c>
     </row>
     <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="B252" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C252" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D252" t="s">
         <v>31</v>
       </c>
       <c r="E252" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
       <c r="F252" t="s">
-        <v>514</v>
+        <v>542</v>
       </c>
     </row>
     <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>542</v>
+        <v>621</v>
       </c>
       <c r="B253" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C253" t="s">
-        <v>819</v>
+        <v>622</v>
       </c>
       <c r="D253" t="s">
         <v>31</v>
       </c>
       <c r="E253" t="s">
-        <v>543</v>
+        <v>622</v>
       </c>
       <c r="F253" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>626</v>
+        <v>430</v>
       </c>
       <c r="B254" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C254" t="s">
-        <v>627</v>
+        <v>802</v>
       </c>
       <c r="D254" t="s">
         <v>31</v>
       </c>
       <c r="E254" t="s">
-        <v>627</v>
+        <v>431</v>
       </c>
       <c r="F254" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="B255" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="C255" t="s">
-        <v>808</v>
+        <v>859</v>
       </c>
       <c r="D255" t="s">
         <v>31</v>
       </c>
       <c r="E255" t="s">
-        <v>433</v>
+        <v>803</v>
       </c>
       <c r="F255" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
+        <v>442</v>
+      </c>
+      <c r="B256" t="s">
+        <v>836</v>
+      </c>
+      <c r="C256" t="s">
+        <v>854</v>
+      </c>
+      <c r="D256" t="s">
+        <v>31</v>
+      </c>
+      <c r="E256" t="s">
+        <v>437</v>
+      </c>
+      <c r="F256" t="s">
         <v>443</v>
-      </c>
-      <c r="B256" t="s">
-        <v>843</v>
-      </c>
-      <c r="C256" t="s">
-        <v>867</v>
-      </c>
-      <c r="D256" t="s">
-        <v>10</v>
-      </c>
-      <c r="E256" t="s">
-        <v>809</v>
-      </c>
-      <c r="F256" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
@@ -8666,16 +8815,16 @@
         <v>444</v>
       </c>
       <c r="B257" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="C257" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="D257" t="s">
         <v>31</v>
       </c>
       <c r="E257" t="s">
-        <v>439</v>
+        <v>10</v>
       </c>
       <c r="F257" t="s">
         <v>445</v>
@@ -8683,199 +8832,199 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="B258" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="C258" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="D258" t="s">
         <v>31</v>
       </c>
       <c r="E258" t="s">
-        <v>10</v>
+        <v>434</v>
       </c>
       <c r="F258" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B259" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="C259" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="D259" t="s">
         <v>31</v>
       </c>
       <c r="E259" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F259" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B260" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="C260" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="D260" t="s">
         <v>31</v>
       </c>
       <c r="E260" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F260" t="s">
-        <v>440</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>441</v>
-      </c>
-      <c r="B261" t="s">
-        <v>843</v>
-      </c>
-      <c r="C261" t="s">
-        <v>866</v>
+      <c r="A261" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>631</v>
       </c>
       <c r="D261" t="s">
-        <v>31</v>
-      </c>
-      <c r="E261" t="s">
-        <v>442</v>
-      </c>
-      <c r="F261" t="s">
+        <v>829</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F261" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F262" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>529</v>
+      </c>
+      <c r="B262" t="s">
+        <v>842</v>
+      </c>
+      <c r="C262" t="s">
+        <v>530</v>
+      </c>
+      <c r="D262" t="s">
+        <v>6</v>
+      </c>
+      <c r="E262" t="s">
+        <v>530</v>
+      </c>
+      <c r="F262" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>531</v>
+        <v>588</v>
       </c>
       <c r="B263" t="s">
-        <v>850</v>
+        <v>905</v>
       </c>
       <c r="C263" t="s">
-        <v>532</v>
+        <v>588</v>
       </c>
       <c r="D263" t="s">
         <v>6</v>
       </c>
       <c r="E263" t="s">
-        <v>532</v>
+        <v>588</v>
       </c>
       <c r="F263" t="s">
-        <v>533</v>
+        <v>893</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="B264" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="C264" t="s">
-        <v>581</v>
+        <v>820</v>
       </c>
       <c r="D264" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E264" t="s">
-        <v>10</v>
+        <v>606</v>
       </c>
       <c r="F264" t="s">
-        <v>10</v>
+        <v>607</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>593</v>
+        <v>637</v>
       </c>
       <c r="B265" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="C265" t="s">
-        <v>593</v>
+        <v>637</v>
       </c>
       <c r="D265" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E265" t="s">
-        <v>10</v>
-      </c>
-      <c r="F265" t="s">
-        <v>10</v>
+        <v>637</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>610</v>
-      </c>
-      <c r="B266" t="s">
-        <v>850</v>
+        <v>545</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>842</v>
       </c>
       <c r="C266" t="s">
-        <v>826</v>
+        <v>546</v>
       </c>
       <c r="D266" t="s">
         <v>6</v>
       </c>
       <c r="E266" t="s">
-        <v>611</v>
+        <v>546</v>
       </c>
       <c r="F266" t="s">
-        <v>612</v>
+        <v>547</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>642</v>
+        <v>96</v>
       </c>
       <c r="B267" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="C267" t="s">
-        <v>642</v>
+        <v>699</v>
       </c>
       <c r="D267" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E267" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="F267" t="s">
         <v>10</v>
@@ -8883,39 +9032,39 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>547</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>850</v>
+        <v>99</v>
+      </c>
+      <c r="B268" t="s">
+        <v>841</v>
       </c>
       <c r="C268" t="s">
-        <v>548</v>
+        <v>699</v>
       </c>
       <c r="D268" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="E268" t="s">
-        <v>548</v>
+        <v>101</v>
       </c>
       <c r="F268" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B269" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="C269" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D269" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E269" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F269" t="s">
         <v>10</v>
@@ -8923,859 +9072,859 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B270" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="C270" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D270" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E270" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F270" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="B271" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="C271" t="s">
-        <v>706</v>
+        <v>30</v>
       </c>
       <c r="D271" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="E271" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="F271" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B272" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="C272" t="s">
-        <v>706</v>
+        <v>94</v>
       </c>
       <c r="D272" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="E272" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F272" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>30</v>
+        <v>532</v>
       </c>
       <c r="B273" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="C273" t="s">
-        <v>30</v>
+        <v>812</v>
       </c>
       <c r="D273" t="s">
-        <v>31</v>
+        <v>829</v>
       </c>
       <c r="E273" t="s">
-        <v>32</v>
+        <v>896</v>
       </c>
       <c r="F273" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>95</v>
+        <v>674</v>
       </c>
       <c r="B274" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="C274" t="s">
-        <v>96</v>
+        <v>827</v>
       </c>
       <c r="D274" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E274" t="s">
-        <v>96</v>
+        <v>675</v>
       </c>
       <c r="F274" t="s">
-        <v>97</v>
+        <v>676</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>534</v>
+        <v>575</v>
       </c>
       <c r="B275" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="C275" t="s">
-        <v>818</v>
+        <v>575</v>
       </c>
       <c r="D275" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E275" t="s">
-        <v>10</v>
+        <v>575</v>
       </c>
       <c r="F275" t="s">
-        <v>10</v>
+        <v>576</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B276" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="C276" t="s">
-        <v>834</v>
+        <v>671</v>
       </c>
       <c r="D276" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E276" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="F276" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>579</v>
-      </c>
-      <c r="B277" t="s">
-        <v>848</v>
+        <v>82</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>838</v>
       </c>
       <c r="C277" t="s">
-        <v>579</v>
+        <v>862</v>
       </c>
       <c r="D277" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="E277" t="s">
-        <v>579</v>
+        <v>83</v>
       </c>
       <c r="F277" t="s">
-        <v>580</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B278" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="C278" t="s">
-        <v>677</v>
+        <v>861</v>
       </c>
       <c r="D278" t="s">
-        <v>31</v>
+        <v>829</v>
       </c>
       <c r="E278" t="s">
-        <v>678</v>
+        <v>831</v>
       </c>
       <c r="F278" t="s">
-        <v>679</v>
+        <v>830</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>84</v>
+        <v>556</v>
       </c>
       <c r="B279" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="C279" t="s">
-        <v>870</v>
+        <v>557</v>
       </c>
       <c r="D279" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E279" t="s">
-        <v>85</v>
+        <v>557</v>
       </c>
       <c r="F279" t="s">
-        <v>10</v>
+        <v>558</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>686</v>
+        <v>559</v>
       </c>
       <c r="B280" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="C280" t="s">
-        <v>869</v>
+        <v>814</v>
       </c>
       <c r="D280" t="s">
-        <v>836</v>
+        <v>31</v>
       </c>
       <c r="E280" t="s">
-        <v>838</v>
+        <v>560</v>
       </c>
       <c r="F280" t="s">
-        <v>837</v>
+        <v>561</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B281" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="C281" t="s">
-        <v>559</v>
+        <v>860</v>
       </c>
       <c r="D281" t="s">
         <v>31</v>
       </c>
       <c r="E281" t="s">
-        <v>559</v>
-      </c>
-      <c r="F281" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>561</v>
+        <v>43</v>
       </c>
       <c r="B282" t="s">
-        <v>842</v>
+        <v>905</v>
       </c>
       <c r="C282" t="s">
-        <v>820</v>
+        <v>691</v>
       </c>
       <c r="D282" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E282" t="s">
-        <v>562</v>
+        <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>564</v>
+        <v>44</v>
       </c>
       <c r="B283" t="s">
-        <v>842</v>
+        <v>905</v>
       </c>
       <c r="C283" t="s">
-        <v>868</v>
+        <v>44</v>
       </c>
       <c r="D283" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E283" t="s">
-        <v>565</v>
+        <v>44</v>
       </c>
       <c r="F283" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B284" t="s">
-        <v>849</v>
+        <v>905</v>
       </c>
       <c r="C284" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D284" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E284" t="s">
-        <v>10</v>
+        <v>895</v>
       </c>
       <c r="F284" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B285" t="s">
-        <v>849</v>
+        <v>905</v>
       </c>
       <c r="C285" t="s">
-        <v>46</v>
+        <v>867</v>
       </c>
       <c r="D285" t="s">
         <v>6</v>
       </c>
       <c r="E285" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F285" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B286" t="s">
-        <v>849</v>
+        <v>905</v>
       </c>
       <c r="C286" t="s">
-        <v>698</v>
+        <v>863</v>
       </c>
       <c r="D286" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E286" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="F286" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B287" t="s">
-        <v>849</v>
+        <v>905</v>
       </c>
       <c r="C287" t="s">
-        <v>875</v>
+        <v>697</v>
       </c>
       <c r="D287" t="s">
         <v>6</v>
       </c>
       <c r="E287" t="s">
-        <v>74</v>
-      </c>
-      <c r="F287" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+        <v>922</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="B288" t="s">
-        <v>849</v>
+        <v>905</v>
       </c>
       <c r="C288" t="s">
-        <v>871</v>
+        <v>112</v>
       </c>
       <c r="D288" t="s">
+        <v>10</v>
+      </c>
+      <c r="E288" t="s">
+        <v>10</v>
+      </c>
+      <c r="F288" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>584</v>
+      </c>
+      <c r="B289" t="s">
+        <v>905</v>
+      </c>
+      <c r="C289" t="s">
+        <v>584</v>
+      </c>
+      <c r="D289" t="s">
         <v>6</v>
       </c>
-      <c r="E288" t="s">
-        <v>77</v>
-      </c>
-      <c r="F288" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
-        <v>79</v>
-      </c>
-      <c r="B289" t="s">
-        <v>849</v>
-      </c>
-      <c r="C289" t="s">
-        <v>703</v>
-      </c>
-      <c r="D289" t="s">
-        <v>10</v>
-      </c>
       <c r="E289" t="s">
-        <v>10</v>
+        <v>585</v>
       </c>
       <c r="F289" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>114</v>
+        <v>592</v>
       </c>
       <c r="B290" t="s">
-        <v>849</v>
+        <v>905</v>
       </c>
       <c r="C290" t="s">
-        <v>114</v>
+        <v>816</v>
       </c>
       <c r="D290" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E290" t="s">
-        <v>10</v>
+        <v>593</v>
       </c>
       <c r="F290" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="B291" t="s">
-        <v>849</v>
+        <v>905</v>
       </c>
       <c r="C291" t="s">
-        <v>589</v>
+        <v>817</v>
       </c>
       <c r="D291" t="s">
         <v>6</v>
       </c>
       <c r="E291" t="s">
-        <v>590</v>
-      </c>
-      <c r="F291" t="s">
-        <v>591</v>
+        <v>920</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>597</v>
+        <v>677</v>
       </c>
       <c r="B292" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
       <c r="C292" t="s">
-        <v>822</v>
+        <v>678</v>
       </c>
       <c r="D292" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E292" t="s">
-        <v>598</v>
+        <v>678</v>
       </c>
       <c r="F292" t="s">
-        <v>599</v>
+        <v>679</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>600</v>
+        <v>12</v>
       </c>
       <c r="B293" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
       <c r="C293" t="s">
-        <v>823</v>
+        <v>687</v>
       </c>
       <c r="D293" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E293" t="s">
-        <v>10</v>
+        <v>687</v>
       </c>
       <c r="F293" t="s">
-        <v>10</v>
+        <v>880</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>683</v>
+        <v>67</v>
       </c>
       <c r="B294" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C294" t="s">
-        <v>684</v>
+        <v>68</v>
       </c>
       <c r="D294" t="s">
         <v>14</v>
       </c>
       <c r="E294" t="s">
-        <v>684</v>
+        <v>69</v>
       </c>
       <c r="F294" t="s">
-        <v>685</v>
+        <v>70</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="B295" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C295" t="s">
-        <v>693</v>
+        <v>89</v>
       </c>
       <c r="D295" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E295" t="s">
-        <v>10</v>
-      </c>
-      <c r="F295" t="s">
-        <v>10</v>
+        <v>89</v>
+      </c>
+      <c r="F295" s="3" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B296" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C296" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="D296" t="s">
         <v>14</v>
       </c>
       <c r="E296" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="F296" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>91</v>
+        <v>450</v>
       </c>
       <c r="B297" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C297" t="s">
-        <v>91</v>
+        <v>804</v>
       </c>
       <c r="D297" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E297" t="s">
-        <v>10</v>
+        <v>451</v>
       </c>
       <c r="F297" t="s">
-        <v>10</v>
+        <v>452</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>110</v>
+        <v>449</v>
       </c>
       <c r="B298" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C298" t="s">
-        <v>111</v>
+        <v>864</v>
       </c>
       <c r="D298" t="s">
         <v>14</v>
       </c>
       <c r="E298" t="s">
-        <v>112</v>
-      </c>
-      <c r="F298" t="s">
-        <v>113</v>
+        <v>917</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>452</v>
+        <v>484</v>
       </c>
       <c r="B299" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C299" t="s">
-        <v>810</v>
+        <v>485</v>
       </c>
       <c r="D299" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E299" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="F299" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>451</v>
+        <v>514</v>
       </c>
       <c r="B300" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C300" t="s">
-        <v>872</v>
+        <v>807</v>
       </c>
       <c r="D300" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E300" t="s">
-        <v>10</v>
+        <v>515</v>
       </c>
       <c r="F300" t="s">
-        <v>10</v>
+        <v>516</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="B301" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C301" t="s">
-        <v>487</v>
+        <v>808</v>
       </c>
       <c r="D301" t="s">
         <v>6</v>
       </c>
       <c r="E301" t="s">
-        <v>487</v>
+        <v>519</v>
       </c>
       <c r="F301" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B302" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C302" t="s">
-        <v>813</v>
+        <v>866</v>
       </c>
       <c r="D302" t="s">
         <v>6</v>
       </c>
       <c r="E302" t="s">
-        <v>517</v>
-      </c>
-      <c r="F302" t="s">
-        <v>518</v>
+        <v>915</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="B303" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C303" t="s">
-        <v>814</v>
+        <v>534</v>
       </c>
       <c r="D303" t="s">
         <v>6</v>
       </c>
       <c r="E303" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="F303" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>519</v>
+        <v>564</v>
       </c>
       <c r="B304" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C304" t="s">
-        <v>874</v>
+        <v>564</v>
       </c>
       <c r="D304" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E304" t="s">
-        <v>10</v>
+        <v>565</v>
       </c>
       <c r="F304" t="s">
-        <v>10</v>
+        <v>566</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>535</v>
+        <v>567</v>
       </c>
       <c r="B305" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C305" t="s">
-        <v>536</v>
+        <v>567</v>
       </c>
       <c r="D305" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E305" t="s">
-        <v>537</v>
+        <v>568</v>
       </c>
       <c r="F305" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>566</v>
+        <v>604</v>
       </c>
       <c r="B306" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C306" t="s">
-        <v>566</v>
+        <v>819</v>
       </c>
       <c r="D306" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E306" t="s">
-        <v>567</v>
+        <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
+        <v>570</v>
+      </c>
+      <c r="B307" t="s">
+        <v>834</v>
+      </c>
+      <c r="C307" t="s">
+        <v>570</v>
+      </c>
+      <c r="D307" t="s">
+        <v>31</v>
+      </c>
+      <c r="E307" t="s">
+        <v>570</v>
+      </c>
+      <c r="F307" t="s">
         <v>571</v>
-      </c>
-      <c r="B307" t="s">
-        <v>841</v>
-      </c>
-      <c r="C307" t="s">
-        <v>571</v>
-      </c>
-      <c r="D307" t="s">
-        <v>14</v>
-      </c>
-      <c r="E307" t="s">
-        <v>572</v>
-      </c>
-      <c r="F307" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B308" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C308" t="s">
-        <v>825</v>
+        <v>610</v>
       </c>
       <c r="D308" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E308" t="s">
-        <v>10</v>
+        <v>611</v>
       </c>
       <c r="F308" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>574</v>
+        <v>641</v>
       </c>
       <c r="B309" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C309" t="s">
-        <v>574</v>
+        <v>874</v>
       </c>
       <c r="D309" t="s">
-        <v>31</v>
+        <v>642</v>
       </c>
       <c r="E309" t="s">
-        <v>574</v>
+        <v>822</v>
       </c>
       <c r="F309" t="s">
-        <v>575</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
-        <v>615</v>
+      <c r="A310" s="1" t="s">
+        <v>638</v>
       </c>
       <c r="B310" t="s">
-        <v>841</v>
-      </c>
-      <c r="C310" t="s">
-        <v>615</v>
-      </c>
-      <c r="D310" t="s">
-        <v>6</v>
-      </c>
-      <c r="E310" t="s">
-        <v>616</v>
-      </c>
-      <c r="F310" t="s">
-        <v>617</v>
+        <v>834</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B311" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C311" t="s">
-        <v>882</v>
+        <v>823</v>
       </c>
       <c r="D311" t="s">
-        <v>647</v>
+        <v>14</v>
       </c>
       <c r="E311" t="s">
-        <v>828</v>
-      </c>
-      <c r="F311" t="s">
-        <v>10</v>
+        <v>885</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B312" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>645</v>
@@ -9783,202 +9932,202 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
+        <v>646</v>
+      </c>
+      <c r="B313" t="s">
+        <v>834</v>
+      </c>
+      <c r="C313" t="s">
+        <v>873</v>
+      </c>
+      <c r="D313" t="s">
+        <v>6</v>
+      </c>
+      <c r="E313" t="s">
+        <v>824</v>
+      </c>
+      <c r="F313" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>647</v>
+      </c>
+      <c r="B314" t="s">
+        <v>834</v>
+      </c>
+      <c r="C314" t="s">
+        <v>825</v>
+      </c>
+      <c r="D314" t="s">
+        <v>14</v>
+      </c>
+      <c r="E314" t="s">
         <v>648</v>
       </c>
-      <c r="B313" t="s">
-        <v>841</v>
-      </c>
-      <c r="C313" t="s">
-        <v>829</v>
-      </c>
-      <c r="D313" t="s">
-        <v>10</v>
-      </c>
-      <c r="E313" t="s">
-        <v>10</v>
-      </c>
-      <c r="F313" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A314" s="1" t="s">
+      <c r="F314" t="s">
         <v>649</v>
-      </c>
-      <c r="B314" t="s">
-        <v>841</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="D314" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E314" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="F314" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B315" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C315" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="D315" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E315" t="s">
-        <v>830</v>
+        <v>654</v>
       </c>
       <c r="F315" t="s">
-        <v>10</v>
+        <v>655</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="B316" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C316" t="s">
-        <v>831</v>
+        <v>869</v>
       </c>
       <c r="D316" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E316" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="F316" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="B317" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C317" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="D317" t="s">
         <v>6</v>
       </c>
       <c r="E317" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F317" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B318" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C318" t="s">
-        <v>877</v>
+        <v>826</v>
       </c>
       <c r="D318" t="s">
         <v>6</v>
       </c>
       <c r="E318" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F318" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="B319" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C319" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="D319" t="s">
         <v>6</v>
       </c>
       <c r="E319" t="s">
-        <v>656</v>
+        <v>884</v>
       </c>
       <c r="F319" t="s">
-        <v>657</v>
+        <v>907</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>664</v>
+        <v>908</v>
       </c>
       <c r="B320" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C320" t="s">
-        <v>832</v>
+        <v>909</v>
       </c>
       <c r="D320" t="s">
         <v>6</v>
       </c>
       <c r="E320" t="s">
-        <v>665</v>
+        <v>883</v>
       </c>
       <c r="F320" t="s">
-        <v>666</v>
+        <v>910</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B321" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C321" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="D321" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E321" t="s">
-        <v>10</v>
+        <v>664</v>
       </c>
       <c r="F321" t="s">
-        <v>10</v>
+        <v>665</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
+        <v>666</v>
+      </c>
+      <c r="B322" t="s">
+        <v>834</v>
+      </c>
+      <c r="C322" t="s">
+        <v>871</v>
+      </c>
+      <c r="D322" t="s">
+        <v>6</v>
+      </c>
+      <c r="E322" t="s">
+        <v>667</v>
+      </c>
+      <c r="F322" t="s">
         <v>668</v>
-      </c>
-      <c r="B322" t="s">
-        <v>841</v>
-      </c>
-      <c r="C322" t="s">
-        <v>833</v>
-      </c>
-      <c r="D322" t="s">
-        <v>10</v>
-      </c>
-      <c r="E322" t="s">
-        <v>10</v>
-      </c>
-      <c r="F322" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
@@ -9986,10 +10135,10 @@
         <v>669</v>
       </c>
       <c r="B323" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C323" t="s">
-        <v>880</v>
+        <v>670</v>
       </c>
       <c r="D323" t="s">
         <v>14</v>
@@ -9997,72 +10146,32 @@
       <c r="E323" t="s">
         <v>670</v>
       </c>
-      <c r="F323" t="s">
-        <v>671</v>
+      <c r="F323" s="3" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A324" t="s">
-        <v>672</v>
-      </c>
-      <c r="B324" t="s">
-        <v>841</v>
-      </c>
-      <c r="C324" t="s">
-        <v>879</v>
-      </c>
-      <c r="D324" t="s">
+      <c r="A324" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D324" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E324" t="s">
-        <v>673</v>
-      </c>
-      <c r="F324" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A325" t="s">
-        <v>675</v>
-      </c>
-      <c r="B325" t="s">
-        <v>841</v>
-      </c>
-      <c r="C325" t="s">
-        <v>676</v>
-      </c>
-      <c r="D325" t="s">
-        <v>14</v>
-      </c>
-      <c r="E325" t="s">
-        <v>676</v>
-      </c>
-      <c r="F325" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A326" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E326" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F326" s="1" t="s">
-        <v>10</v>
+      <c r="E324" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>891</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F326" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:F324" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="Amino acid"/>
@@ -10078,8 +10187,8 @@
         <filter val="Vitamin"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F326">
-      <sortCondition ref="B1:B326"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F324">
+      <sortCondition ref="B1:B324"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data-raw/raw/AFCD_nutrient_key_work.xlsx
+++ b/data-raw/raw/AFCD_nutrient_key_work.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/BFA_Papers/BFA_Nutrition/AFCD/data-raw/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5590C1A4-EAFC-B44A-BB1B-8AE600F2087D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCAE27D-13E3-534D-BAEF-584A1676B283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29840" yWindow="-5960" windowWidth="28220" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3460" windowWidth="33920" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFCD_nutrient_key_work" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="933">
   <si>
     <t>nutrient_orig</t>
   </si>
@@ -1942,9 +1942,6 @@
     <t>Vitamin_a_calculated_by_summation_of_the_vitamin_a_activities_of_retinol_and_the_active_carotenoids</t>
   </si>
   <si>
-    <t>Vitamin A; calculated by summation of the vitamin A activities of retinol and the active carotenoids.</t>
-  </si>
-  <si>
     <t>VITA</t>
   </si>
   <si>
@@ -2650,9 +2647,6 @@
     <t>Vitamin A; sum of carotenoids</t>
   </si>
   <si>
-    <t>Vitamin A; sum of retinol/carotenoids</t>
-  </si>
-  <si>
     <t>Glutamine + gluamic acid</t>
   </si>
   <si>
@@ -2816,13 +2810,25 @@
   </si>
   <si>
     <t>Nitrogen protein</t>
+  </si>
+  <si>
+    <t>Vitamin A; sum of retinol/carotenoids, expressed as retinol activity equivalent (RAE)</t>
+  </si>
+  <si>
+    <t>Vitamin A; sum of retinol/carotenoids, expressed as retinol equivalent (RE)</t>
+  </si>
+  <si>
+    <t>Vitamin A; calculated by summation of the vitamin A activities of retinol and the active carotenoids, expressed as retinol equivalent (RE)</t>
+  </si>
+  <si>
+    <t>Vitamin A; calculated by summation of the vitamin A activities of retinol and the active carotenoids, expressed as retinol activity equivalent (RAE)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2953,13 +2959,6 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3317,7 +3316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3676,8 +3675,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="159" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3691,1823 +3690,1823 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>832</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>840</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>840</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>685</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>840</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E61" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>840</v>
-      </c>
-      <c r="C5" t="s">
-        <v>688</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E63" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" t="s">
-        <v>840</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E66" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>460</v>
-      </c>
-      <c r="B8" t="s">
-        <v>840</v>
-      </c>
-      <c r="C8" t="s">
-        <v>460</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E69" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
-        <v>461</v>
-      </c>
-      <c r="F8" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>463</v>
-      </c>
-      <c r="B9" t="s">
-        <v>840</v>
-      </c>
-      <c r="C9" t="s">
-        <v>876</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>464</v>
-      </c>
-      <c r="B10" t="s">
-        <v>840</v>
-      </c>
-      <c r="C10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>465</v>
-      </c>
-      <c r="B11" t="s">
-        <v>840</v>
-      </c>
-      <c r="C11" t="s">
-        <v>848</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E72" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E11" t="s">
-        <v>848</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>466</v>
-      </c>
-      <c r="B12" t="s">
-        <v>840</v>
-      </c>
-      <c r="C12" t="s">
-        <v>466</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E80" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E12" t="s">
-        <v>467</v>
-      </c>
-      <c r="F12" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>471</v>
-      </c>
-      <c r="B13" t="s">
-        <v>840</v>
-      </c>
-      <c r="C13" t="s">
-        <v>471</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E81" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E13" t="s">
-        <v>471</v>
-      </c>
-      <c r="F13" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>473</v>
-      </c>
-      <c r="B14" t="s">
-        <v>840</v>
-      </c>
-      <c r="C14" t="s">
-        <v>473</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>474</v>
-      </c>
-      <c r="B15" t="s">
-        <v>840</v>
-      </c>
-      <c r="C15" t="s">
-        <v>474</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E82" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E15" t="s">
-        <v>474</v>
-      </c>
-      <c r="F15" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>481</v>
-      </c>
-      <c r="B16" t="s">
-        <v>840</v>
-      </c>
-      <c r="C16" t="s">
-        <v>482</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E85" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E16" t="s">
-        <v>482</v>
-      </c>
-      <c r="F16" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>489</v>
-      </c>
-      <c r="B17" t="s">
-        <v>840</v>
-      </c>
-      <c r="C17" t="s">
-        <v>489</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E87" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E17" t="s">
-        <v>490</v>
-      </c>
-      <c r="F17" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>496</v>
-      </c>
-      <c r="B18" t="s">
-        <v>840</v>
-      </c>
-      <c r="C18" t="s">
-        <v>496</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E89" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E18" t="s">
-        <v>497</v>
-      </c>
-      <c r="F18" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>505</v>
-      </c>
-      <c r="B19" t="s">
-        <v>840</v>
-      </c>
-      <c r="C19" t="s">
-        <v>505</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E90" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E19" t="s">
-        <v>506</v>
-      </c>
-      <c r="F19" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>526</v>
-      </c>
-      <c r="B20" t="s">
-        <v>840</v>
-      </c>
-      <c r="C20" t="s">
-        <v>526</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
-        <v>526</v>
-      </c>
-      <c r="F20" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>537</v>
-      </c>
-      <c r="B21" t="s">
-        <v>840</v>
-      </c>
-      <c r="C21" t="s">
-        <v>537</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" t="s">
-        <v>538</v>
-      </c>
-      <c r="F21" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>553</v>
-      </c>
-      <c r="B22" t="s">
-        <v>840</v>
-      </c>
-      <c r="C22" t="s">
-        <v>553</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
-        <v>554</v>
-      </c>
-      <c r="F22" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>579</v>
-      </c>
-      <c r="B23" t="s">
-        <v>840</v>
-      </c>
-      <c r="C23" t="s">
-        <v>579</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" t="s">
-        <v>580</v>
-      </c>
-      <c r="F23" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>608</v>
-      </c>
-      <c r="B24" t="s">
-        <v>840</v>
-      </c>
-      <c r="C24" t="s">
-        <v>608</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" t="s">
-        <v>608</v>
-      </c>
-      <c r="F24" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>613</v>
-      </c>
-      <c r="B25" t="s">
-        <v>840</v>
-      </c>
-      <c r="C25" t="s">
-        <v>613</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" t="s">
-        <v>614</v>
-      </c>
-      <c r="F25" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="C29" t="s">
-        <v>849</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>624</v>
-      </c>
-      <c r="B30" t="s">
-        <v>840</v>
-      </c>
-      <c r="C30" t="s">
-        <v>624</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" t="s">
-        <v>625</v>
-      </c>
-      <c r="F30" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>627</v>
-      </c>
-      <c r="B31" t="s">
-        <v>840</v>
-      </c>
-      <c r="C31" t="s">
-        <v>627</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" t="s">
-        <v>628</v>
-      </c>
-      <c r="F31" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>632</v>
-      </c>
-      <c r="B32" t="s">
-        <v>840</v>
-      </c>
-      <c r="C32" t="s">
-        <v>632</v>
-      </c>
-      <c r="D32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" t="s">
-        <v>633</v>
-      </c>
-      <c r="F32" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>456</v>
-      </c>
-      <c r="B33" t="s">
-        <v>840</v>
-      </c>
-      <c r="C33" t="s">
-        <v>457</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" t="s">
-        <v>458</v>
-      </c>
-      <c r="F33" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" t="s">
-        <v>837</v>
-      </c>
-      <c r="C34" t="s">
-        <v>693</v>
-      </c>
-      <c r="D34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" t="s">
-        <v>837</v>
-      </c>
-      <c r="C35" t="s">
-        <v>695</v>
-      </c>
-      <c r="D35" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" t="s">
-        <v>837</v>
-      </c>
-      <c r="C36" t="s">
-        <v>694</v>
-      </c>
-      <c r="D36" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" t="s">
-        <v>837</v>
-      </c>
-      <c r="C37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>469</v>
-      </c>
-      <c r="B38" t="s">
-        <v>837</v>
-      </c>
-      <c r="C38" t="s">
-        <v>469</v>
-      </c>
-      <c r="D38" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" t="s">
-        <v>469</v>
-      </c>
-      <c r="F38" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>548</v>
-      </c>
-      <c r="B39" t="s">
-        <v>837</v>
-      </c>
-      <c r="C39" t="s">
-        <v>853</v>
-      </c>
-      <c r="D39" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" t="s">
-        <v>549</v>
-      </c>
-      <c r="F39" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>589</v>
-      </c>
-      <c r="B40" t="s">
-        <v>837</v>
-      </c>
-      <c r="C40" t="s">
-        <v>815</v>
-      </c>
-      <c r="D40" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" t="s">
-        <v>590</v>
-      </c>
-      <c r="F40" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>453</v>
-      </c>
-      <c r="B41" t="s">
-        <v>837</v>
-      </c>
-      <c r="C41" t="s">
-        <v>453</v>
-      </c>
-      <c r="D41" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" t="s">
-        <v>454</v>
-      </c>
-      <c r="F41" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>574</v>
-      </c>
-      <c r="B42" t="s">
-        <v>837</v>
-      </c>
-      <c r="C42" t="s">
-        <v>574</v>
-      </c>
-      <c r="D42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>598</v>
-      </c>
-      <c r="B43" t="s">
-        <v>837</v>
-      </c>
-      <c r="C43" t="s">
-        <v>598</v>
-      </c>
-      <c r="D43" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" t="s">
-        <v>598</v>
-      </c>
-      <c r="F43" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>600</v>
-      </c>
-      <c r="B44" t="s">
-        <v>837</v>
-      </c>
-      <c r="C44" t="s">
-        <v>818</v>
-      </c>
-      <c r="D44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" t="s">
-        <v>839</v>
-      </c>
-      <c r="C45" t="s">
-        <v>686</v>
-      </c>
-      <c r="D45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" t="s">
-        <v>882</v>
-      </c>
-      <c r="F45" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" t="s">
-        <v>839</v>
-      </c>
-      <c r="C46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" t="s">
-        <v>839</v>
-      </c>
-      <c r="C47" t="s">
-        <v>689</v>
-      </c>
-      <c r="D47" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" t="s">
-        <v>689</v>
-      </c>
-      <c r="F47" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" t="s">
-        <v>839</v>
-      </c>
-      <c r="C48" t="s">
-        <v>690</v>
-      </c>
-      <c r="D48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" t="s">
-        <v>879</v>
-      </c>
-      <c r="F48" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" t="s">
-        <v>839</v>
-      </c>
-      <c r="C49" t="s">
-        <v>696</v>
-      </c>
-      <c r="D49" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" t="s">
-        <v>696</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>620</v>
-      </c>
-      <c r="B50" t="s">
-        <v>842</v>
-      </c>
-      <c r="C50" t="s">
-        <v>821</v>
-      </c>
-      <c r="D50" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" t="s">
-        <v>821</v>
-      </c>
-      <c r="F50" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>494</v>
-      </c>
-      <c r="B51" t="s">
-        <v>839</v>
-      </c>
-      <c r="C51" t="s">
-        <v>494</v>
-      </c>
-      <c r="D51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" t="s">
-        <v>494</v>
-      </c>
-      <c r="F51" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>513</v>
-      </c>
-      <c r="B52" t="s">
-        <v>834</v>
-      </c>
-      <c r="C52" t="s">
-        <v>513</v>
-      </c>
-      <c r="D52" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" t="s">
-        <v>513</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>681</v>
-      </c>
-      <c r="B53" t="s">
-        <v>839</v>
-      </c>
-      <c r="C53" t="s">
-        <v>681</v>
-      </c>
-      <c r="D53" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" t="s">
-        <v>681</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="E91" s="3" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" t="s">
-        <v>843</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" t="s">
-        <v>843</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" t="s">
-        <v>843</v>
-      </c>
-      <c r="C56" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" t="s">
-        <v>23</v>
-      </c>
-      <c r="F56" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57" t="s">
-        <v>843</v>
-      </c>
-      <c r="C57" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" t="s">
-        <v>28</v>
-      </c>
-      <c r="F57" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>39</v>
-      </c>
-      <c r="B58" t="s">
-        <v>843</v>
-      </c>
-      <c r="C58" t="s">
-        <v>39</v>
-      </c>
-      <c r="D58" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" t="s">
-        <v>39</v>
-      </c>
-      <c r="F58" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" t="s">
-        <v>843</v>
-      </c>
-      <c r="C59" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" t="s">
-        <v>46</v>
-      </c>
-      <c r="F59" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>48</v>
-      </c>
-      <c r="B60" t="s">
-        <v>843</v>
-      </c>
-      <c r="C60" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" t="s">
-        <v>48</v>
-      </c>
-      <c r="F60" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>50</v>
-      </c>
-      <c r="B61" t="s">
-        <v>843</v>
-      </c>
-      <c r="C61" t="s">
-        <v>50</v>
-      </c>
-      <c r="D61" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" t="s">
-        <v>50</v>
-      </c>
-      <c r="F61" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" t="s">
-        <v>843</v>
-      </c>
-      <c r="C62" t="s">
-        <v>63</v>
-      </c>
-      <c r="D62" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" t="s">
-        <v>63</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" t="s">
-        <v>843</v>
-      </c>
-      <c r="C63" t="s">
-        <v>64</v>
-      </c>
-      <c r="D63" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" t="s">
-        <v>65</v>
-      </c>
-      <c r="F63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" t="s">
-        <v>843</v>
-      </c>
-      <c r="C64" t="s">
-        <v>78</v>
-      </c>
-      <c r="D64" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" t="s">
-        <v>78</v>
-      </c>
-      <c r="F64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>80</v>
-      </c>
-      <c r="B65" t="s">
-        <v>843</v>
-      </c>
-      <c r="C65" t="s">
-        <v>80</v>
-      </c>
-      <c r="D65" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" t="s">
-        <v>80</v>
-      </c>
-      <c r="F65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>84</v>
-      </c>
-      <c r="B66" t="s">
-        <v>843</v>
-      </c>
-      <c r="C66" t="s">
-        <v>84</v>
-      </c>
-      <c r="D66" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" t="s">
-        <v>84</v>
-      </c>
-      <c r="F66" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>446</v>
-      </c>
-      <c r="B67" t="s">
-        <v>843</v>
-      </c>
-      <c r="C67" t="s">
-        <v>446</v>
-      </c>
-      <c r="D67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" t="s">
-        <v>447</v>
-      </c>
-      <c r="F67" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>476</v>
-      </c>
-      <c r="B68" t="s">
-        <v>843</v>
-      </c>
-      <c r="C68" t="s">
-        <v>476</v>
-      </c>
-      <c r="D68" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" t="s">
-        <v>476</v>
-      </c>
-      <c r="F68" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>478</v>
-      </c>
-      <c r="B69" t="s">
-        <v>843</v>
-      </c>
-      <c r="C69" t="s">
-        <v>805</v>
-      </c>
-      <c r="D69" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" t="s">
-        <v>479</v>
-      </c>
-      <c r="F69" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>487</v>
-      </c>
-      <c r="B70" t="s">
-        <v>843</v>
-      </c>
-      <c r="C70" t="s">
-        <v>487</v>
-      </c>
-      <c r="D70" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" t="s">
-        <v>487</v>
-      </c>
-      <c r="F70" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>492</v>
-      </c>
-      <c r="B71" t="s">
-        <v>843</v>
-      </c>
-      <c r="C71" t="s">
-        <v>492</v>
-      </c>
-      <c r="D71" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" t="s">
-        <v>492</v>
-      </c>
-      <c r="F71" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>499</v>
-      </c>
-      <c r="B72" t="s">
-        <v>843</v>
-      </c>
-      <c r="C72" t="s">
-        <v>499</v>
-      </c>
-      <c r="D72" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72" t="s">
-        <v>499</v>
-      </c>
-      <c r="F72" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>501</v>
-      </c>
-      <c r="B73" t="s">
-        <v>843</v>
-      </c>
-      <c r="C73" t="s">
-        <v>501</v>
-      </c>
-      <c r="D73" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" t="s">
-        <v>501</v>
-      </c>
-      <c r="F73" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>503</v>
-      </c>
-      <c r="B74" t="s">
-        <v>843</v>
-      </c>
-      <c r="C74" t="s">
-        <v>503</v>
-      </c>
-      <c r="D74" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" t="s">
-        <v>503</v>
-      </c>
-      <c r="F74" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>508</v>
-      </c>
-      <c r="B75" t="s">
-        <v>843</v>
-      </c>
-      <c r="C75" t="s">
-        <v>508</v>
-      </c>
-      <c r="D75" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" t="s">
-        <v>508</v>
-      </c>
-      <c r="F75" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>521</v>
-      </c>
-      <c r="B76" t="s">
-        <v>843</v>
-      </c>
-      <c r="C76" t="s">
-        <v>521</v>
-      </c>
-      <c r="D76" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" t="s">
-        <v>521</v>
-      </c>
-      <c r="F76" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>523</v>
-      </c>
-      <c r="B77" t="s">
-        <v>835</v>
-      </c>
-      <c r="C77" t="s">
-        <v>809</v>
-      </c>
-      <c r="D77" t="s">
-        <v>31</v>
-      </c>
-      <c r="E77" t="s">
-        <v>889</v>
-      </c>
-      <c r="F77" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>524</v>
-      </c>
-      <c r="B78" t="s">
-        <v>835</v>
-      </c>
-      <c r="C78" t="s">
-        <v>810</v>
-      </c>
-      <c r="D78" t="s">
-        <v>31</v>
-      </c>
-      <c r="E78" t="s">
-        <v>930</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>525</v>
-      </c>
-      <c r="B79" t="s">
-        <v>835</v>
-      </c>
-      <c r="C79" t="s">
-        <v>811</v>
-      </c>
-      <c r="D79" t="s">
-        <v>31</v>
-      </c>
-      <c r="E79" t="s">
-        <v>887</v>
-      </c>
-      <c r="F79" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>543</v>
-      </c>
-      <c r="B80" t="s">
-        <v>843</v>
-      </c>
-      <c r="C80" t="s">
-        <v>543</v>
-      </c>
-      <c r="D80" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" t="s">
-        <v>543</v>
-      </c>
-      <c r="F80" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>551</v>
-      </c>
-      <c r="B81" t="s">
-        <v>843</v>
-      </c>
-      <c r="C81" t="s">
-        <v>551</v>
-      </c>
-      <c r="D81" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81" t="s">
-        <v>551</v>
-      </c>
-      <c r="F81" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>572</v>
-      </c>
-      <c r="B82" t="s">
-        <v>843</v>
-      </c>
-      <c r="C82" t="s">
-        <v>572</v>
-      </c>
-      <c r="D82" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" t="s">
-        <v>572</v>
-      </c>
-      <c r="F82" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>577</v>
-      </c>
-      <c r="B83" t="s">
-        <v>843</v>
-      </c>
-      <c r="C83" t="s">
-        <v>577</v>
-      </c>
-      <c r="D83" t="s">
-        <v>14</v>
-      </c>
-      <c r="E83" t="s">
-        <v>577</v>
-      </c>
-      <c r="F83" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>582</v>
-      </c>
-      <c r="B84" t="s">
-        <v>843</v>
-      </c>
-      <c r="C84" t="s">
-        <v>582</v>
-      </c>
-      <c r="D84" t="s">
-        <v>14</v>
-      </c>
-      <c r="E84" t="s">
-        <v>582</v>
-      </c>
-      <c r="F84" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>587</v>
-      </c>
-      <c r="B85" t="s">
-        <v>843</v>
-      </c>
-      <c r="C85" t="s">
-        <v>587</v>
-      </c>
-      <c r="D85" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85" t="s">
-        <v>587</v>
-      </c>
-      <c r="F85" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>596</v>
-      </c>
-      <c r="B86" t="s">
-        <v>843</v>
-      </c>
-      <c r="C86" t="s">
-        <v>596</v>
-      </c>
-      <c r="D86" t="s">
-        <v>14</v>
-      </c>
-      <c r="E86" t="s">
-        <v>596</v>
-      </c>
-      <c r="F86" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>602</v>
-      </c>
-      <c r="B87" t="s">
-        <v>843</v>
-      </c>
-      <c r="C87" t="s">
-        <v>602</v>
-      </c>
-      <c r="D87" t="s">
-        <v>6</v>
-      </c>
-      <c r="E87" t="s">
-        <v>602</v>
-      </c>
-      <c r="F87" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>616</v>
-      </c>
-      <c r="B88" t="s">
-        <v>843</v>
-      </c>
-      <c r="C88" t="s">
-        <v>616</v>
-      </c>
-      <c r="D88" t="s">
-        <v>14</v>
-      </c>
-      <c r="E88" t="s">
-        <v>616</v>
-      </c>
-      <c r="F88" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>618</v>
-      </c>
-      <c r="B89" t="s">
-        <v>843</v>
-      </c>
-      <c r="C89" t="s">
-        <v>619</v>
-      </c>
-      <c r="D89" t="s">
-        <v>6</v>
-      </c>
-      <c r="E89" t="s">
-        <v>619</v>
-      </c>
-      <c r="F89" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>635</v>
-      </c>
-      <c r="B90" t="s">
-        <v>843</v>
-      </c>
-      <c r="C90" t="s">
-        <v>635</v>
-      </c>
-      <c r="D90" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" t="s">
-        <v>635</v>
-      </c>
-      <c r="F90" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="F91" s="3" t="s">
         <v>683</v>
-      </c>
-      <c r="B91" t="s">
-        <v>843</v>
-      </c>
-      <c r="C91" t="s">
-        <v>683</v>
-      </c>
-      <c r="D91" t="s">
-        <v>6</v>
-      </c>
-      <c r="E91" t="s">
-        <v>683</v>
-      </c>
-      <c r="F91" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -5515,10 +5514,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C92" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D92" t="s">
         <v>31</v>
@@ -5535,10 +5534,10 @@
         <v>115</v>
       </c>
       <c r="B93" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C93" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D93" t="s">
         <v>31</v>
@@ -5555,10 +5554,10 @@
         <v>118</v>
       </c>
       <c r="B94" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C94" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D94" t="s">
         <v>31</v>
@@ -5575,10 +5574,10 @@
         <v>113</v>
       </c>
       <c r="B95" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C95" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D95" t="s">
         <v>10</v>
@@ -5595,7 +5594,7 @@
         <v>121</v>
       </c>
       <c r="B96" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C96" t="s">
         <v>122</v>
@@ -5615,7 +5614,7 @@
         <v>123</v>
       </c>
       <c r="B97" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C97" t="s">
         <v>124</v>
@@ -5635,7 +5634,7 @@
         <v>125</v>
       </c>
       <c r="B98" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C98" t="s">
         <v>126</v>
@@ -5655,7 +5654,7 @@
         <v>127</v>
       </c>
       <c r="B99" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C99" t="s">
         <v>128</v>
@@ -5675,7 +5674,7 @@
         <v>131</v>
       </c>
       <c r="B100" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C100" t="s">
         <v>132</v>
@@ -5695,7 +5694,7 @@
         <v>133</v>
       </c>
       <c r="B101" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C101" t="s">
         <v>134</v>
@@ -5715,10 +5714,10 @@
         <v>135</v>
       </c>
       <c r="B102" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C102" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D102" t="s">
         <v>31</v>
@@ -5735,7 +5734,7 @@
         <v>137</v>
       </c>
       <c r="B103" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C103" t="s">
         <v>138</v>
@@ -5755,10 +5754,10 @@
         <v>139</v>
       </c>
       <c r="B104" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C104" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D104" t="s">
         <v>31</v>
@@ -5775,10 +5774,10 @@
         <v>141</v>
       </c>
       <c r="B105" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C105" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D105" t="s">
         <v>31</v>
@@ -5795,10 +5794,10 @@
         <v>143</v>
       </c>
       <c r="B106" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C106" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D106" t="s">
         <v>31</v>
@@ -5815,7 +5814,7 @@
         <v>145</v>
       </c>
       <c r="B107" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C107" t="s">
         <v>146</v>
@@ -5835,10 +5834,10 @@
         <v>147</v>
       </c>
       <c r="B108" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C108" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D108" t="s">
         <v>31</v>
@@ -5855,7 +5854,7 @@
         <v>149</v>
       </c>
       <c r="B109" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C109" t="s">
         <v>150</v>
@@ -5875,7 +5874,7 @@
         <v>151</v>
       </c>
       <c r="B110" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C110" t="s">
         <v>152</v>
@@ -5895,10 +5894,10 @@
         <v>153</v>
       </c>
       <c r="B111" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C111" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D111" t="s">
         <v>31</v>
@@ -5915,7 +5914,7 @@
         <v>155</v>
       </c>
       <c r="B112" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C112" t="s">
         <v>156</v>
@@ -5935,10 +5934,10 @@
         <v>157</v>
       </c>
       <c r="B113" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C113" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D113" t="s">
         <v>10</v>
@@ -5955,10 +5954,10 @@
         <v>158</v>
       </c>
       <c r="B114" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C114" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D114" t="s">
         <v>31</v>
@@ -5975,10 +5974,10 @@
         <v>160</v>
       </c>
       <c r="B115" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C115" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D115" t="s">
         <v>31</v>
@@ -5995,10 +5994,10 @@
         <v>162</v>
       </c>
       <c r="B116" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C116" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D116" t="s">
         <v>31</v>
@@ -6015,10 +6014,10 @@
         <v>164</v>
       </c>
       <c r="B117" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C117" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D117" t="s">
         <v>31</v>
@@ -6035,10 +6034,10 @@
         <v>166</v>
       </c>
       <c r="B118" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C118" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D118" t="s">
         <v>31</v>
@@ -6055,7 +6054,7 @@
         <v>168</v>
       </c>
       <c r="B119" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C119" t="s">
         <v>169</v>
@@ -6075,10 +6074,10 @@
         <v>170</v>
       </c>
       <c r="B120" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C120" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D120" t="s">
         <v>31</v>
@@ -6095,10 +6094,10 @@
         <v>172</v>
       </c>
       <c r="B121" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C121" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D121" t="s">
         <v>31</v>
@@ -6115,7 +6114,7 @@
         <v>174</v>
       </c>
       <c r="B122" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C122" t="s">
         <v>175</v>
@@ -6135,10 +6134,10 @@
         <v>176</v>
       </c>
       <c r="B123" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C123" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D123" t="s">
         <v>31</v>
@@ -6155,10 +6154,10 @@
         <v>178</v>
       </c>
       <c r="B124" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C124" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D124" t="s">
         <v>31</v>
@@ -6175,7 +6174,7 @@
         <v>180</v>
       </c>
       <c r="B125" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C125" t="s">
         <v>181</v>
@@ -6195,10 +6194,10 @@
         <v>182</v>
       </c>
       <c r="B126" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C126" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D126" t="s">
         <v>31</v>
@@ -6215,10 +6214,10 @@
         <v>184</v>
       </c>
       <c r="B127" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C127" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D127" t="s">
         <v>31</v>
@@ -6235,10 +6234,10 @@
         <v>186</v>
       </c>
       <c r="B128" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C128" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D128" t="s">
         <v>31</v>
@@ -6255,7 +6254,7 @@
         <v>188</v>
       </c>
       <c r="B129" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C129" t="s">
         <v>189</v>
@@ -6275,10 +6274,10 @@
         <v>190</v>
       </c>
       <c r="B130" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C130" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D130" t="s">
         <v>31</v>
@@ -6295,10 +6294,10 @@
         <v>192</v>
       </c>
       <c r="B131" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C131" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D131" t="s">
         <v>31</v>
@@ -6315,7 +6314,7 @@
         <v>194</v>
       </c>
       <c r="B132" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C132" t="s">
         <v>195</v>
@@ -6335,10 +6334,10 @@
         <v>196</v>
       </c>
       <c r="B133" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C133" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D133" t="s">
         <v>31</v>
@@ -6355,10 +6354,10 @@
         <v>198</v>
       </c>
       <c r="B134" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C134" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D134" t="s">
         <v>31</v>
@@ -6375,10 +6374,10 @@
         <v>200</v>
       </c>
       <c r="B135" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C135" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D135" t="s">
         <v>31</v>
@@ -6395,10 +6394,10 @@
         <v>202</v>
       </c>
       <c r="B136" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C136" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D136" t="s">
         <v>31</v>
@@ -6415,7 +6414,7 @@
         <v>224</v>
       </c>
       <c r="B137" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C137" t="s">
         <v>225</v>
@@ -6435,7 +6434,7 @@
         <v>226</v>
       </c>
       <c r="B138" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C138" t="s">
         <v>227</v>
@@ -6455,7 +6454,7 @@
         <v>204</v>
       </c>
       <c r="B139" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C139" t="s">
         <v>205</v>
@@ -6475,10 +6474,10 @@
         <v>206</v>
       </c>
       <c r="B140" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C140" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D140" t="s">
         <v>31</v>
@@ -6495,10 +6494,10 @@
         <v>208</v>
       </c>
       <c r="B141" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C141" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D141" t="s">
         <v>31</v>
@@ -6515,10 +6514,10 @@
         <v>210</v>
       </c>
       <c r="B142" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C142" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D142" t="s">
         <v>31</v>
@@ -6535,10 +6534,10 @@
         <v>212</v>
       </c>
       <c r="B143" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C143" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D143" t="s">
         <v>31</v>
@@ -6555,10 +6554,10 @@
         <v>214</v>
       </c>
       <c r="B144" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C144" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D144" t="s">
         <v>31</v>
@@ -6575,10 +6574,10 @@
         <v>216</v>
       </c>
       <c r="B145" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C145" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D145" t="s">
         <v>10</v>
@@ -6595,10 +6594,10 @@
         <v>218</v>
       </c>
       <c r="B146" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C146" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D146" t="s">
         <v>31</v>
@@ -6615,10 +6614,10 @@
         <v>220</v>
       </c>
       <c r="B147" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C147" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D147" t="s">
         <v>31</v>
@@ -6635,10 +6634,10 @@
         <v>222</v>
       </c>
       <c r="B148" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C148" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D148" t="s">
         <v>31</v>
@@ -6655,7 +6654,7 @@
         <v>229</v>
       </c>
       <c r="B149" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C149" t="s">
         <v>230</v>
@@ -6675,10 +6674,10 @@
         <v>231</v>
       </c>
       <c r="B150" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C150" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D150" t="s">
         <v>31</v>
@@ -6695,10 +6694,10 @@
         <v>233</v>
       </c>
       <c r="B151" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C151" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D151" t="s">
         <v>31</v>
@@ -6715,10 +6714,10 @@
         <v>235</v>
       </c>
       <c r="B152" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C152" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D152" t="s">
         <v>31</v>
@@ -6735,10 +6734,10 @@
         <v>237</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>31</v>
@@ -6755,10 +6754,10 @@
         <v>239</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>10</v>
@@ -6775,10 +6774,10 @@
         <v>240</v>
       </c>
       <c r="B155" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C155" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D155" t="s">
         <v>31</v>
@@ -6795,10 +6794,10 @@
         <v>242</v>
       </c>
       <c r="B156" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C156" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D156" t="s">
         <v>31</v>
@@ -6815,7 +6814,7 @@
         <v>244</v>
       </c>
       <c r="B157" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C157" t="s">
         <v>245</v>
@@ -6835,10 +6834,10 @@
         <v>246</v>
       </c>
       <c r="B158" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C158" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D158" t="s">
         <v>31</v>
@@ -6855,10 +6854,10 @@
         <v>248</v>
       </c>
       <c r="B159" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C159" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D159" t="s">
         <v>31</v>
@@ -6875,10 +6874,10 @@
         <v>250</v>
       </c>
       <c r="B160" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C160" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D160" t="s">
         <v>31</v>
@@ -6895,10 +6894,10 @@
         <v>252</v>
       </c>
       <c r="B161" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C161" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D161" t="s">
         <v>31</v>
@@ -6915,10 +6914,10 @@
         <v>254</v>
       </c>
       <c r="B162" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C162" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D162" t="s">
         <v>31</v>
@@ -6935,7 +6934,7 @@
         <v>256</v>
       </c>
       <c r="B163" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C163" t="s">
         <v>257</v>
@@ -6955,10 +6954,10 @@
         <v>258</v>
       </c>
       <c r="B164" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C164" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D164" t="s">
         <v>31</v>
@@ -6975,10 +6974,10 @@
         <v>260</v>
       </c>
       <c r="B165" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C165" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D165" t="s">
         <v>31</v>
@@ -6995,10 +6994,10 @@
         <v>262</v>
       </c>
       <c r="B166" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C166" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D166" t="s">
         <v>31</v>
@@ -7015,7 +7014,7 @@
         <v>264</v>
       </c>
       <c r="B167" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C167" t="s">
         <v>265</v>
@@ -7035,10 +7034,10 @@
         <v>266</v>
       </c>
       <c r="B168" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C168" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D168" t="s">
         <v>31</v>
@@ -7055,7 +7054,7 @@
         <v>268</v>
       </c>
       <c r="B169" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C169" t="s">
         <v>269</v>
@@ -7075,7 +7074,7 @@
         <v>270</v>
       </c>
       <c r="B170" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C170" t="s">
         <v>271</v>
@@ -7095,10 +7094,10 @@
         <v>272</v>
       </c>
       <c r="B171" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C171" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D171" t="s">
         <v>31</v>
@@ -7115,10 +7114,10 @@
         <v>274</v>
       </c>
       <c r="B172" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C172" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D172" t="s">
         <v>31</v>
@@ -7135,10 +7134,10 @@
         <v>276</v>
       </c>
       <c r="B173" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C173" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D173" t="s">
         <v>31</v>
@@ -7155,10 +7154,10 @@
         <v>278</v>
       </c>
       <c r="B174" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C174" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D174" t="s">
         <v>31</v>
@@ -7175,10 +7174,10 @@
         <v>280</v>
       </c>
       <c r="B175" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C175" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D175" t="s">
         <v>31</v>
@@ -7195,10 +7194,10 @@
         <v>282</v>
       </c>
       <c r="B176" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C176" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D176" t="s">
         <v>10</v>
@@ -7215,7 +7214,7 @@
         <v>283</v>
       </c>
       <c r="B177" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C177" t="s">
         <v>284</v>
@@ -7235,10 +7234,10 @@
         <v>285</v>
       </c>
       <c r="B178" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C178" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D178" t="s">
         <v>31</v>
@@ -7255,10 +7254,10 @@
         <v>287</v>
       </c>
       <c r="B179" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C179" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D179" t="s">
         <v>31</v>
@@ -7275,10 +7274,10 @@
         <v>289</v>
       </c>
       <c r="B180" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C180" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D180" t="s">
         <v>31</v>
@@ -7295,10 +7294,10 @@
         <v>291</v>
       </c>
       <c r="B181" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C181" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D181" t="s">
         <v>31</v>
@@ -7315,7 +7314,7 @@
         <v>293</v>
       </c>
       <c r="B182" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C182" t="s">
         <v>294</v>
@@ -7335,10 +7334,10 @@
         <v>295</v>
       </c>
       <c r="B183" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C183" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D183" t="s">
         <v>31</v>
@@ -7355,10 +7354,10 @@
         <v>297</v>
       </c>
       <c r="B184" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C184" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D184" t="s">
         <v>31</v>
@@ -7375,10 +7374,10 @@
         <v>299</v>
       </c>
       <c r="B185" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C185" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D185" t="s">
         <v>31</v>
@@ -7395,10 +7394,10 @@
         <v>301</v>
       </c>
       <c r="B186" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C186" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D186" t="s">
         <v>31</v>
@@ -7415,7 +7414,7 @@
         <v>303</v>
       </c>
       <c r="B187" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C187" t="s">
         <v>304</v>
@@ -7435,10 +7434,10 @@
         <v>305</v>
       </c>
       <c r="B188" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C188" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D188" t="s">
         <v>31</v>
@@ -7455,10 +7454,10 @@
         <v>307</v>
       </c>
       <c r="B189" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C189" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D189" t="s">
         <v>31</v>
@@ -7475,10 +7474,10 @@
         <v>309</v>
       </c>
       <c r="B190" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C190" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D190" t="s">
         <v>31</v>
@@ -7495,10 +7494,10 @@
         <v>311</v>
       </c>
       <c r="B191" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C191" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D191" t="s">
         <v>10</v>
@@ -7515,7 +7514,7 @@
         <v>312</v>
       </c>
       <c r="B192" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C192" t="s">
         <v>313</v>
@@ -7535,10 +7534,10 @@
         <v>314</v>
       </c>
       <c r="B193" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C193" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D193" t="s">
         <v>31</v>
@@ -7555,10 +7554,10 @@
         <v>316</v>
       </c>
       <c r="B194" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C194" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D194" t="s">
         <v>31</v>
@@ -7575,7 +7574,7 @@
         <v>318</v>
       </c>
       <c r="B195" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C195" t="s">
         <v>319</v>
@@ -7595,7 +7594,7 @@
         <v>320</v>
       </c>
       <c r="B196" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C196" t="s">
         <v>321</v>
@@ -7615,10 +7614,10 @@
         <v>322</v>
       </c>
       <c r="B197" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C197" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D197" t="s">
         <v>31</v>
@@ -7635,7 +7634,7 @@
         <v>324</v>
       </c>
       <c r="B198" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C198" t="s">
         <v>325</v>
@@ -7655,7 +7654,7 @@
         <v>326</v>
       </c>
       <c r="B199" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C199" t="s">
         <v>327</v>
@@ -7675,10 +7674,10 @@
         <v>328</v>
       </c>
       <c r="B200" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C200" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D200" t="s">
         <v>31</v>
@@ -7695,10 +7694,10 @@
         <v>330</v>
       </c>
       <c r="B201" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C201" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D201" t="s">
         <v>31</v>
@@ -7715,10 +7714,10 @@
         <v>332</v>
       </c>
       <c r="B202" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C202" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D202" t="s">
         <v>31</v>
@@ -7735,10 +7734,10 @@
         <v>334</v>
       </c>
       <c r="B203" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C203" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D203" t="s">
         <v>10</v>
@@ -7755,10 +7754,10 @@
         <v>335</v>
       </c>
       <c r="B204" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C204" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D204" t="s">
         <v>31</v>
@@ -7775,7 +7774,7 @@
         <v>337</v>
       </c>
       <c r="B205" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C205" t="s">
         <v>338</v>
@@ -7795,10 +7794,10 @@
         <v>339</v>
       </c>
       <c r="B206" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C206" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D206" t="s">
         <v>31</v>
@@ -7815,10 +7814,10 @@
         <v>341</v>
       </c>
       <c r="B207" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C207" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D207" t="s">
         <v>31</v>
@@ -7835,7 +7834,7 @@
         <v>343</v>
       </c>
       <c r="B208" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C208" t="s">
         <v>344</v>
@@ -7855,10 +7854,10 @@
         <v>345</v>
       </c>
       <c r="B209" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C209" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D209" t="s">
         <v>31</v>
@@ -7875,10 +7874,10 @@
         <v>347</v>
       </c>
       <c r="B210" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C210" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D210" t="s">
         <v>31</v>
@@ -7895,7 +7894,7 @@
         <v>349</v>
       </c>
       <c r="B211" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C211" t="s">
         <v>350</v>
@@ -7915,10 +7914,10 @@
         <v>351</v>
       </c>
       <c r="B212" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C212" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D212" t="s">
         <v>31</v>
@@ -7935,10 +7934,10 @@
         <v>353</v>
       </c>
       <c r="B213" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C213" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D213" t="s">
         <v>31</v>
@@ -7955,10 +7954,10 @@
         <v>355</v>
       </c>
       <c r="B214" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C214" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D214" t="s">
         <v>31</v>
@@ -7975,7 +7974,7 @@
         <v>357</v>
       </c>
       <c r="B215" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C215" t="s">
         <v>358</v>
@@ -7995,10 +7994,10 @@
         <v>359</v>
       </c>
       <c r="B216" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C216" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D216" t="s">
         <v>31</v>
@@ -8015,10 +8014,10 @@
         <v>361</v>
       </c>
       <c r="B217" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C217" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D217" t="s">
         <v>31</v>
@@ -8035,10 +8034,10 @@
         <v>363</v>
       </c>
       <c r="B218" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C218" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D218" t="s">
         <v>31</v>
@@ -8055,7 +8054,7 @@
         <v>365</v>
       </c>
       <c r="B219" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C219" t="s">
         <v>366</v>
@@ -8075,10 +8074,10 @@
         <v>367</v>
       </c>
       <c r="B220" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C220" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D220" t="s">
         <v>31</v>
@@ -8095,10 +8094,10 @@
         <v>369</v>
       </c>
       <c r="B221" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C221" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D221" t="s">
         <v>31</v>
@@ -8115,7 +8114,7 @@
         <v>371</v>
       </c>
       <c r="B222" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C222" t="s">
         <v>372</v>
@@ -8135,7 +8134,7 @@
         <v>129</v>
       </c>
       <c r="B223" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C223" t="s">
         <v>130</v>
@@ -8155,7 +8154,7 @@
         <v>373</v>
       </c>
       <c r="B224" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C224" t="s">
         <v>130</v>
@@ -8175,7 +8174,7 @@
         <v>374</v>
       </c>
       <c r="B225" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C225" t="s">
         <v>375</v>
@@ -8195,10 +8194,10 @@
         <v>376</v>
       </c>
       <c r="B226" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C226" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D226" t="s">
         <v>31</v>
@@ -8215,10 +8214,10 @@
         <v>378</v>
       </c>
       <c r="B227" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C227" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D227" t="s">
         <v>31</v>
@@ -8235,7 +8234,7 @@
         <v>380</v>
       </c>
       <c r="B228" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C228" t="s">
         <v>381</v>
@@ -8255,7 +8254,7 @@
         <v>382</v>
       </c>
       <c r="B229" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C229" t="s">
         <v>383</v>
@@ -8275,7 +8274,7 @@
         <v>384</v>
       </c>
       <c r="B230" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C230" t="s">
         <v>385</v>
@@ -8295,7 +8294,7 @@
         <v>386</v>
       </c>
       <c r="B231" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C231" t="s">
         <v>387</v>
@@ -8315,7 +8314,7 @@
         <v>388</v>
       </c>
       <c r="B232" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C232" t="s">
         <v>389</v>
@@ -8335,7 +8334,7 @@
         <v>390</v>
       </c>
       <c r="B233" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C233" t="s">
         <v>391</v>
@@ -8355,7 +8354,7 @@
         <v>392</v>
       </c>
       <c r="B234" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C234" t="s">
         <v>393</v>
@@ -8375,7 +8374,7 @@
         <v>394</v>
       </c>
       <c r="B235" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C235" t="s">
         <v>395</v>
@@ -8395,10 +8394,10 @@
         <v>396</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>10</v>
@@ -8415,7 +8414,7 @@
         <v>401</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>402</v>
@@ -8435,7 +8434,7 @@
         <v>527</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>528</v>
@@ -8455,7 +8454,7 @@
         <v>403</v>
       </c>
       <c r="B239" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C239" t="s">
         <v>404</v>
@@ -8475,10 +8474,10 @@
         <v>406</v>
       </c>
       <c r="B240" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C240" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D240" t="s">
         <v>31</v>
@@ -8495,10 +8494,10 @@
         <v>408</v>
       </c>
       <c r="B241" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C241" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D241" t="s">
         <v>31</v>
@@ -8515,10 +8514,10 @@
         <v>397</v>
       </c>
       <c r="B242" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C242" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D242" t="s">
         <v>31</v>
@@ -8535,10 +8534,10 @@
         <v>411</v>
       </c>
       <c r="B243" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C243" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D243" t="s">
         <v>31</v>
@@ -8555,10 +8554,10 @@
         <v>399</v>
       </c>
       <c r="B244" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C244" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D244" t="s">
         <v>31</v>
@@ -8575,10 +8574,10 @@
         <v>414</v>
       </c>
       <c r="B245" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C245" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D245" t="s">
         <v>31</v>
@@ -8595,10 +8594,10 @@
         <v>417</v>
       </c>
       <c r="B246" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C246" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D246" t="s">
         <v>31</v>
@@ -8615,10 +8614,10 @@
         <v>419</v>
       </c>
       <c r="B247" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C247" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D247" t="s">
         <v>31</v>
@@ -8635,10 +8634,10 @@
         <v>421</v>
       </c>
       <c r="B248" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C248" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D248" t="s">
         <v>31</v>
@@ -8655,10 +8654,10 @@
         <v>424</v>
       </c>
       <c r="B249" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C249" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D249" t="s">
         <v>31</v>
@@ -8675,10 +8674,10 @@
         <v>427</v>
       </c>
       <c r="B250" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C250" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D250" t="s">
         <v>31</v>
@@ -8695,10 +8694,10 @@
         <v>510</v>
       </c>
       <c r="B251" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C251" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D251" t="s">
         <v>31</v>
@@ -8715,10 +8714,10 @@
         <v>540</v>
       </c>
       <c r="B252" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C252" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D252" t="s">
         <v>31</v>
@@ -8735,7 +8734,7 @@
         <v>621</v>
       </c>
       <c r="B253" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C253" t="s">
         <v>622</v>
@@ -8751,182 +8750,182 @@
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
+      <c r="A254" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B254" t="s">
-        <v>836</v>
-      </c>
-      <c r="C254" t="s">
+      <c r="B254" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E255" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="D254" t="s">
-        <v>31</v>
-      </c>
-      <c r="E254" t="s">
-        <v>431</v>
-      </c>
-      <c r="F254" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>441</v>
-      </c>
-      <c r="B255" t="s">
-        <v>836</v>
-      </c>
-      <c r="C255" t="s">
-        <v>859</v>
-      </c>
-      <c r="D255" t="s">
-        <v>31</v>
-      </c>
-      <c r="E255" t="s">
-        <v>803</v>
-      </c>
-      <c r="F255" t="s">
-        <v>926</v>
+      <c r="F255" s="3" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
+      <c r="A256" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B256" t="s">
-        <v>836</v>
-      </c>
-      <c r="C256" t="s">
+      <c r="B256" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A257" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="C257" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="D256" t="s">
-        <v>31</v>
-      </c>
-      <c r="E256" t="s">
+      <c r="D257" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A258" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A259" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E259" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="F256" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>444</v>
-      </c>
-      <c r="B257" t="s">
-        <v>836</v>
-      </c>
-      <c r="C257" t="s">
-        <v>855</v>
-      </c>
-      <c r="D257" t="s">
-        <v>31</v>
-      </c>
-      <c r="E257" t="s">
-        <v>10</v>
-      </c>
-      <c r="F257" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>433</v>
-      </c>
-      <c r="B258" t="s">
-        <v>836</v>
-      </c>
-      <c r="C258" t="s">
-        <v>856</v>
-      </c>
-      <c r="D258" t="s">
-        <v>31</v>
-      </c>
-      <c r="E258" t="s">
-        <v>434</v>
-      </c>
-      <c r="F258" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>436</v>
-      </c>
-      <c r="B259" t="s">
-        <v>836</v>
-      </c>
-      <c r="C259" t="s">
+      <c r="F259" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="C260" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="D259" t="s">
-        <v>31</v>
-      </c>
-      <c r="E259" t="s">
-        <v>437</v>
-      </c>
-      <c r="F259" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>439</v>
-      </c>
-      <c r="B260" t="s">
-        <v>836</v>
-      </c>
-      <c r="C260" t="s">
-        <v>858</v>
-      </c>
-      <c r="D260" t="s">
-        <v>31</v>
-      </c>
-      <c r="E260" t="s">
+      <c r="D260" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E260" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="F260" t="s">
+      <c r="F260" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A261" s="1" t="s">
+      <c r="A261" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="B261" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="C261" s="1" t="s">
+      <c r="B261" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="C261" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="D261" t="s">
-        <v>829</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F261" s="1" t="s">
+      <c r="D261" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F261" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
+      <c r="A262" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="B262" t="s">
-        <v>842</v>
-      </c>
-      <c r="C262" t="s">
+      <c r="B262" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="C262" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D262" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E262" t="s">
+      <c r="E262" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="F262" t="s">
+      <c r="F262" s="3" t="s">
         <v>531</v>
       </c>
     </row>
@@ -8935,7 +8934,7 @@
         <v>588</v>
       </c>
       <c r="B263" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C263" t="s">
         <v>588</v>
@@ -8947,367 +8946,367 @@
         <v>588</v>
       </c>
       <c r="F263" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
+      <c r="A264" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="B264" t="s">
-        <v>842</v>
-      </c>
-      <c r="C264" t="s">
-        <v>820</v>
-      </c>
-      <c r="D264" t="s">
+      <c r="B264" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="D264" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E264" t="s">
+      <c r="E264" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="F264" t="s">
+      <c r="F264" s="3" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
+      <c r="A265" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="B265" t="s">
-        <v>839</v>
-      </c>
-      <c r="C265" t="s">
+      <c r="B265" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="C265" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D265" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E265" t="s">
+      <c r="E265" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="F265" s="3" t="s">
-        <v>904</v>
+      <c r="F265" s="2" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
+      <c r="A266" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="B266" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="C266" t="s">
+      <c r="B266" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="C266" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D266" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E266" t="s">
+      <c r="E266" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="F266" t="s">
+      <c r="F266" s="3" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
+      <c r="A267" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B267" t="s">
-        <v>841</v>
-      </c>
-      <c r="C267" t="s">
+      <c r="B267" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A268" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="C269" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D269" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E267" t="s">
-        <v>98</v>
-      </c>
-      <c r="F267" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>99</v>
-      </c>
-      <c r="B268" t="s">
-        <v>841</v>
-      </c>
-      <c r="C268" t="s">
+      <c r="E269" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A270" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="C270" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D270" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E268" t="s">
-        <v>101</v>
-      </c>
-      <c r="F268" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>103</v>
-      </c>
-      <c r="B269" t="s">
-        <v>841</v>
-      </c>
-      <c r="C269" t="s">
-        <v>700</v>
-      </c>
-      <c r="D269" t="s">
-        <v>97</v>
-      </c>
-      <c r="E269" t="s">
-        <v>104</v>
-      </c>
-      <c r="F269" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>105</v>
-      </c>
-      <c r="B270" t="s">
-        <v>841</v>
-      </c>
-      <c r="C270" t="s">
-        <v>700</v>
-      </c>
-      <c r="D270" t="s">
-        <v>100</v>
-      </c>
-      <c r="E270" t="s">
+      <c r="E270" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F270" t="s">
+      <c r="F270" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
+      <c r="A271" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B271" t="s">
-        <v>841</v>
-      </c>
-      <c r="C271" t="s">
+      <c r="B271" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D271" t="s">
-        <v>31</v>
-      </c>
-      <c r="E271" t="s">
+      <c r="D271" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E271" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F271" t="s">
+      <c r="F271" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
+      <c r="A272" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B272" t="s">
-        <v>841</v>
-      </c>
-      <c r="C272" t="s">
+      <c r="B272" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="C272" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D272" t="s">
-        <v>31</v>
-      </c>
-      <c r="E272" t="s">
+      <c r="D272" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E272" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F272" t="s">
+      <c r="F272" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
+      <c r="A273" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="B273" t="s">
-        <v>841</v>
-      </c>
-      <c r="C273" t="s">
-        <v>812</v>
-      </c>
-      <c r="D273" t="s">
+      <c r="B273" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A274" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A275" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A276" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="F278" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="E273" t="s">
-        <v>896</v>
-      </c>
-      <c r="F273" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
-        <v>674</v>
-      </c>
-      <c r="B274" t="s">
-        <v>841</v>
-      </c>
-      <c r="C274" t="s">
-        <v>827</v>
-      </c>
-      <c r="D274" t="s">
-        <v>6</v>
-      </c>
-      <c r="E274" t="s">
-        <v>675</v>
-      </c>
-      <c r="F274" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
-        <v>575</v>
-      </c>
-      <c r="B275" t="s">
-        <v>841</v>
-      </c>
-      <c r="C275" t="s">
-        <v>575</v>
-      </c>
-      <c r="D275" t="s">
-        <v>6</v>
-      </c>
-      <c r="E275" t="s">
-        <v>575</v>
-      </c>
-      <c r="F275" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
-        <v>671</v>
-      </c>
-      <c r="B276" t="s">
-        <v>841</v>
-      </c>
-      <c r="C276" t="s">
-        <v>671</v>
-      </c>
-      <c r="D276" t="s">
-        <v>31</v>
-      </c>
-      <c r="E276" t="s">
-        <v>672</v>
-      </c>
-      <c r="F276" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>82</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="C277" t="s">
-        <v>862</v>
-      </c>
-      <c r="D277" t="s">
-        <v>829</v>
-      </c>
-      <c r="E277" t="s">
-        <v>83</v>
-      </c>
-      <c r="F277" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>680</v>
-      </c>
-      <c r="B278" t="s">
-        <v>835</v>
-      </c>
-      <c r="C278" t="s">
-        <v>861</v>
-      </c>
-      <c r="D278" t="s">
-        <v>829</v>
-      </c>
-      <c r="E278" t="s">
-        <v>831</v>
-      </c>
-      <c r="F278" t="s">
-        <v>830</v>
-      </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
+      <c r="A279" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="B279" t="s">
-        <v>835</v>
-      </c>
-      <c r="C279" t="s">
+      <c r="B279" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="D279" t="s">
-        <v>31</v>
-      </c>
-      <c r="E279" t="s">
+      <c r="D279" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E279" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="F279" t="s">
+      <c r="F279" s="3" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
+      <c r="A280" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="B280" t="s">
-        <v>835</v>
-      </c>
-      <c r="C280" t="s">
-        <v>814</v>
-      </c>
-      <c r="D280" t="s">
-        <v>31</v>
-      </c>
-      <c r="E280" t="s">
+      <c r="B280" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E280" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="F280" t="s">
+      <c r="F280" s="3" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
+      <c r="A281" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B281" t="s">
-        <v>835</v>
-      </c>
-      <c r="C281" t="s">
-        <v>860</v>
-      </c>
-      <c r="D281" t="s">
-        <v>31</v>
-      </c>
-      <c r="E281" t="s">
+      <c r="B281" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E281" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="F281" s="3" t="s">
-        <v>923</v>
+      <c r="F281" s="2" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -9315,10 +9314,10 @@
         <v>43</v>
       </c>
       <c r="B282" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C282" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D282" t="s">
         <v>10</v>
@@ -9335,7 +9334,7 @@
         <v>44</v>
       </c>
       <c r="B283" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C283" t="s">
         <v>44</v>
@@ -9355,19 +9354,19 @@
         <v>52</v>
       </c>
       <c r="B284" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C284" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D284" t="s">
         <v>6</v>
       </c>
       <c r="E284" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F284" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -9375,10 +9374,10 @@
         <v>71</v>
       </c>
       <c r="B285" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C285" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D285" t="s">
         <v>6</v>
@@ -9395,10 +9394,10 @@
         <v>74</v>
       </c>
       <c r="B286" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C286" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D286" t="s">
         <v>6</v>
@@ -9415,19 +9414,19 @@
         <v>77</v>
       </c>
       <c r="B287" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C287" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D287" t="s">
         <v>6</v>
       </c>
       <c r="E287" t="s">
-        <v>922</v>
-      </c>
-      <c r="F287" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -9435,7 +9434,7 @@
         <v>112</v>
       </c>
       <c r="B288" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C288" t="s">
         <v>112</v>
@@ -9455,7 +9454,7 @@
         <v>584</v>
       </c>
       <c r="B289" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C289" t="s">
         <v>584</v>
@@ -9475,10 +9474,10 @@
         <v>592</v>
       </c>
       <c r="B290" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C290" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D290" t="s">
         <v>6</v>
@@ -9495,679 +9494,679 @@
         <v>595</v>
       </c>
       <c r="B291" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C291" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D291" t="s">
         <v>6</v>
       </c>
       <c r="E291" t="s">
-        <v>920</v>
-      </c>
-      <c r="F291" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
+      <c r="A292" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C292" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="B292" t="s">
-        <v>834</v>
-      </c>
-      <c r="C292" t="s">
+      <c r="D292" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="F292" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="D292" t="s">
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A293" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A294" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D294" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E292" t="s">
-        <v>678</v>
-      </c>
-      <c r="F292" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
-        <v>12</v>
-      </c>
-      <c r="B293" t="s">
-        <v>834</v>
-      </c>
-      <c r="C293" t="s">
-        <v>687</v>
-      </c>
-      <c r="D293" t="s">
+      <c r="E294" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A295" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A296" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A297" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A298" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A299" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D299" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E293" t="s">
-        <v>687</v>
-      </c>
-      <c r="F293" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
-        <v>67</v>
-      </c>
-      <c r="B294" t="s">
-        <v>834</v>
-      </c>
-      <c r="C294" t="s">
-        <v>68</v>
-      </c>
-      <c r="D294" t="s">
+      <c r="E299" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="F299" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="F300" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A301" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A302" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A303" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A305" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D305" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E294" t="s">
-        <v>69</v>
-      </c>
-      <c r="F294" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
-        <v>89</v>
-      </c>
-      <c r="B295" t="s">
-        <v>834</v>
-      </c>
-      <c r="C295" t="s">
-        <v>89</v>
-      </c>
-      <c r="D295" t="s">
+      <c r="E305" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A306" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A308" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A309" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A310" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="D310" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E295" t="s">
-        <v>89</v>
-      </c>
-      <c r="F295" s="3" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
-        <v>108</v>
-      </c>
-      <c r="B296" t="s">
-        <v>834</v>
-      </c>
-      <c r="C296" t="s">
-        <v>109</v>
-      </c>
-      <c r="D296" t="s">
+      <c r="E310" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="F310" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A311" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="D311" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E296" t="s">
-        <v>110</v>
-      </c>
-      <c r="F296" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A297" t="s">
-        <v>450</v>
-      </c>
-      <c r="B297" t="s">
-        <v>834</v>
-      </c>
-      <c r="C297" t="s">
-        <v>804</v>
-      </c>
-      <c r="D297" t="s">
+      <c r="E311" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A312" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="D312" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E297" t="s">
-        <v>451</v>
-      </c>
-      <c r="F297" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A298" t="s">
-        <v>449</v>
-      </c>
-      <c r="B298" t="s">
-        <v>834</v>
-      </c>
-      <c r="C298" t="s">
+      <c r="E312" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="F312" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A313" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A314" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A315" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A316" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A317" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C317" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D317" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A318" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="F318" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A319" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="F319" s="3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A320" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A321" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="D321" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E298" t="s">
-        <v>917</v>
-      </c>
-      <c r="F298" s="3" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
-        <v>484</v>
-      </c>
-      <c r="B299" t="s">
-        <v>834</v>
-      </c>
-      <c r="C299" t="s">
-        <v>485</v>
-      </c>
-      <c r="D299" t="s">
+      <c r="E321" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F321" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A322" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="D322" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E299" t="s">
-        <v>485</v>
-      </c>
-      <c r="F299" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
-        <v>514</v>
-      </c>
-      <c r="B300" t="s">
-        <v>834</v>
-      </c>
-      <c r="C300" t="s">
-        <v>807</v>
-      </c>
-      <c r="D300" t="s">
+      <c r="E322" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F322" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A323" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A324" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="D324" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E300" t="s">
-        <v>515</v>
-      </c>
-      <c r="F300" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
-        <v>518</v>
-      </c>
-      <c r="B301" t="s">
-        <v>834</v>
-      </c>
-      <c r="C301" t="s">
-        <v>808</v>
-      </c>
-      <c r="D301" t="s">
-        <v>6</v>
-      </c>
-      <c r="E301" t="s">
-        <v>519</v>
-      </c>
-      <c r="F301" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
-        <v>517</v>
-      </c>
-      <c r="B302" t="s">
-        <v>834</v>
-      </c>
-      <c r="C302" t="s">
-        <v>866</v>
-      </c>
-      <c r="D302" t="s">
-        <v>6</v>
-      </c>
-      <c r="E302" t="s">
-        <v>915</v>
-      </c>
-      <c r="F302" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
-        <v>533</v>
-      </c>
-      <c r="B303" t="s">
-        <v>834</v>
-      </c>
-      <c r="C303" t="s">
-        <v>534</v>
-      </c>
-      <c r="D303" t="s">
-        <v>6</v>
-      </c>
-      <c r="E303" t="s">
-        <v>535</v>
-      </c>
-      <c r="F303" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A304" t="s">
-        <v>564</v>
-      </c>
-      <c r="B304" t="s">
-        <v>834</v>
-      </c>
-      <c r="C304" t="s">
-        <v>564</v>
-      </c>
-      <c r="D304" t="s">
-        <v>6</v>
-      </c>
-      <c r="E304" t="s">
-        <v>565</v>
-      </c>
-      <c r="F304" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
-        <v>567</v>
-      </c>
-      <c r="B305" t="s">
-        <v>834</v>
-      </c>
-      <c r="C305" t="s">
-        <v>567</v>
-      </c>
-      <c r="D305" t="s">
-        <v>14</v>
-      </c>
-      <c r="E305" t="s">
-        <v>568</v>
-      </c>
-      <c r="F305" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
-        <v>604</v>
-      </c>
-      <c r="B306" t="s">
-        <v>834</v>
-      </c>
-      <c r="C306" t="s">
-        <v>819</v>
-      </c>
-      <c r="D306" t="s">
-        <v>10</v>
-      </c>
-      <c r="E306" t="s">
-        <v>10</v>
-      </c>
-      <c r="F306" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
-        <v>570</v>
-      </c>
-      <c r="B307" t="s">
-        <v>834</v>
-      </c>
-      <c r="C307" t="s">
-        <v>570</v>
-      </c>
-      <c r="D307" t="s">
-        <v>31</v>
-      </c>
-      <c r="E307" t="s">
-        <v>570</v>
-      </c>
-      <c r="F307" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
-        <v>610</v>
-      </c>
-      <c r="B308" t="s">
-        <v>834</v>
-      </c>
-      <c r="C308" t="s">
-        <v>610</v>
-      </c>
-      <c r="D308" t="s">
-        <v>6</v>
-      </c>
-      <c r="E308" t="s">
-        <v>611</v>
-      </c>
-      <c r="F308" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
-        <v>641</v>
-      </c>
-      <c r="B309" t="s">
-        <v>834</v>
-      </c>
-      <c r="C309" t="s">
-        <v>874</v>
-      </c>
-      <c r="D309" t="s">
-        <v>642</v>
-      </c>
-      <c r="E309" t="s">
-        <v>822</v>
-      </c>
-      <c r="F309" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A310" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="B310" t="s">
-        <v>834</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="D310" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="F310" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
-        <v>643</v>
-      </c>
-      <c r="B311" t="s">
-        <v>834</v>
-      </c>
-      <c r="C311" t="s">
-        <v>823</v>
-      </c>
-      <c r="D311" t="s">
-        <v>14</v>
-      </c>
-      <c r="E311" t="s">
-        <v>885</v>
-      </c>
-      <c r="F311" s="3" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A312" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B312" t="s">
-        <v>834</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E312" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="F312" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
-        <v>646</v>
-      </c>
-      <c r="B313" t="s">
-        <v>834</v>
-      </c>
-      <c r="C313" t="s">
-        <v>873</v>
-      </c>
-      <c r="D313" t="s">
-        <v>6</v>
-      </c>
-      <c r="E313" t="s">
-        <v>824</v>
-      </c>
-      <c r="F313" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
-        <v>647</v>
-      </c>
-      <c r="B314" t="s">
-        <v>834</v>
-      </c>
-      <c r="C314" t="s">
-        <v>825</v>
-      </c>
-      <c r="D314" t="s">
-        <v>14</v>
-      </c>
-      <c r="E314" t="s">
-        <v>648</v>
-      </c>
-      <c r="F314" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
-        <v>653</v>
-      </c>
-      <c r="B315" t="s">
-        <v>834</v>
-      </c>
-      <c r="C315" t="s">
-        <v>868</v>
-      </c>
-      <c r="D315" t="s">
-        <v>6</v>
-      </c>
-      <c r="E315" t="s">
-        <v>654</v>
-      </c>
-      <c r="F315" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
-        <v>656</v>
-      </c>
-      <c r="B316" t="s">
-        <v>834</v>
-      </c>
-      <c r="C316" t="s">
-        <v>869</v>
-      </c>
-      <c r="D316" t="s">
-        <v>6</v>
-      </c>
-      <c r="E316" t="s">
-        <v>657</v>
-      </c>
-      <c r="F316" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
-        <v>650</v>
-      </c>
-      <c r="B317" t="s">
-        <v>834</v>
-      </c>
-      <c r="C317" t="s">
-        <v>865</v>
-      </c>
-      <c r="D317" t="s">
-        <v>6</v>
-      </c>
-      <c r="E317" t="s">
-        <v>651</v>
-      </c>
-      <c r="F317" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
-        <v>659</v>
-      </c>
-      <c r="B318" t="s">
-        <v>834</v>
-      </c>
-      <c r="C318" t="s">
-        <v>826</v>
-      </c>
-      <c r="D318" t="s">
-        <v>6</v>
-      </c>
-      <c r="E318" t="s">
-        <v>660</v>
-      </c>
-      <c r="F318" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
-        <v>662</v>
-      </c>
-      <c r="B319" t="s">
-        <v>834</v>
-      </c>
-      <c r="C319" t="s">
-        <v>870</v>
-      </c>
-      <c r="D319" t="s">
-        <v>6</v>
-      </c>
-      <c r="E319" t="s">
-        <v>884</v>
-      </c>
-      <c r="F319" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
-        <v>908</v>
-      </c>
-      <c r="B320" t="s">
-        <v>834</v>
-      </c>
-      <c r="C320" t="s">
-        <v>909</v>
-      </c>
-      <c r="D320" t="s">
-        <v>6</v>
-      </c>
-      <c r="E320" t="s">
-        <v>883</v>
-      </c>
-      <c r="F320" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
-        <v>663</v>
-      </c>
-      <c r="B321" t="s">
-        <v>834</v>
-      </c>
-      <c r="C321" t="s">
-        <v>872</v>
-      </c>
-      <c r="D321" t="s">
-        <v>14</v>
-      </c>
-      <c r="E321" t="s">
-        <v>664</v>
-      </c>
-      <c r="F321" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
-        <v>666</v>
-      </c>
-      <c r="B322" t="s">
-        <v>834</v>
-      </c>
-      <c r="C322" t="s">
-        <v>871</v>
-      </c>
-      <c r="D322" t="s">
-        <v>6</v>
-      </c>
-      <c r="E322" t="s">
-        <v>667</v>
-      </c>
-      <c r="F322" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
-        <v>669</v>
-      </c>
-      <c r="B323" t="s">
-        <v>834</v>
-      </c>
-      <c r="C323" t="s">
-        <v>670</v>
-      </c>
-      <c r="D323" t="s">
-        <v>14</v>
-      </c>
-      <c r="E323" t="s">
-        <v>670</v>
-      </c>
-      <c r="F323" s="3" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A324" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="D324" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="F324" s="1" t="s">
-        <v>891</v>
+      <c r="E324" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="F324" s="3" t="s">
+        <v>889</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/raw/AFCD_nutrient_key_work.xlsx
+++ b/data-raw/raw/AFCD_nutrient_key_work.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/BFA_Papers/BFA_Nutrition/AFCD/data-raw/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCAE27D-13E3-534D-BAEF-584A1676B283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB71B558-E836-9245-AB94-8C7A59905B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3460" windowWidth="33920" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33920" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFCD_nutrient_key_work" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="931">
   <si>
     <t>nutrient_orig</t>
   </si>
@@ -2530,24 +2530,12 @@
     <t>Protein</t>
   </si>
   <si>
-    <t>Fibre</t>
-  </si>
-  <si>
     <t>Carbohydrate</t>
   </si>
   <si>
     <t>Non-nutrient</t>
   </si>
   <si>
-    <t>Carotenoid</t>
-  </si>
-  <si>
-    <t>Amino acid</t>
-  </si>
-  <si>
-    <t>Other macronutrient</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -2822,13 +2810,19 @@
   </si>
   <si>
     <t>Vitamin A; calculated by summation of the vitamin A activities of retinol and the active carotenoids, expressed as retinol activity equivalent (RAE)</t>
+  </si>
+  <si>
+    <t>Toxic trace elements</t>
+  </si>
+  <si>
+    <t>Energy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2969,6 +2963,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -3312,11 +3319,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3672,11 +3680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F324"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3690,22 +3697,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>831</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3714,7 +3721,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -3734,7 +3741,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>684</v>
@@ -3745,8 +3752,8 @@
       <c r="E3" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>900</v>
+      <c r="F3" s="3" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3754,7 +3761,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>25</v>
@@ -3774,7 +3781,7 @@
         <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>687</v>
@@ -3794,7 +3801,7 @@
         <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>35</v>
@@ -3814,7 +3821,7 @@
         <v>86</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>86</v>
@@ -3834,7 +3841,7 @@
         <v>460</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>460</v>
@@ -3854,10 +3861,10 @@
         <v>463</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -3874,10 +3881,10 @@
         <v>464</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -3894,19 +3901,19 @@
         <v>465</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>925</v>
+        <v>843</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3914,7 +3921,7 @@
         <v>466</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>466</v>
@@ -3934,7 +3941,7 @@
         <v>471</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>471</v>
@@ -3954,7 +3961,7 @@
         <v>473</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>473</v>
@@ -3974,7 +3981,7 @@
         <v>474</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>474</v>
@@ -3994,7 +4001,7 @@
         <v>481</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>482</v>
@@ -4014,7 +4021,7 @@
         <v>489</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>489</v>
@@ -4034,7 +4041,7 @@
         <v>496</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>496</v>
@@ -4054,7 +4061,7 @@
         <v>505</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>505</v>
@@ -4074,7 +4081,7 @@
         <v>526</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>526</v>
@@ -4086,7 +4093,7 @@
         <v>526</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -4094,7 +4101,7 @@
         <v>537</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>537</v>
@@ -4114,7 +4121,7 @@
         <v>553</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>553</v>
@@ -4134,7 +4141,7 @@
         <v>579</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>579</v>
@@ -4154,7 +4161,7 @@
         <v>608</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>608</v>
@@ -4174,7 +4181,7 @@
         <v>613</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>613</v>
@@ -4194,10 +4201,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>6</v>
@@ -4206,7 +4213,7 @@
         <v>19</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -4214,10 +4221,10 @@
         <v>20</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>6</v>
@@ -4226,7 +4233,7 @@
         <v>19</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -4234,10 +4241,10 @@
         <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>6</v>
@@ -4246,7 +4253,7 @@
         <v>19</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -4254,10 +4261,10 @@
         <v>22</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>6</v>
@@ -4266,7 +4273,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -4274,7 +4281,7 @@
         <v>624</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>624</v>
@@ -4294,7 +4301,7 @@
         <v>627</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>627</v>
@@ -4314,7 +4321,7 @@
         <v>632</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>632</v>
@@ -4334,7 +4341,7 @@
         <v>456</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>457</v>
@@ -4354,7 +4361,7 @@
         <v>53</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>692</v>
@@ -4374,7 +4381,7 @@
         <v>57</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>694</v>
@@ -4394,7 +4401,7 @@
         <v>56</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>693</v>
@@ -4414,7 +4421,7 @@
         <v>61</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>61</v>
@@ -4434,7 +4441,7 @@
         <v>469</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>469</v>
@@ -4454,10 +4461,10 @@
         <v>548</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>31</v>
@@ -4474,7 +4481,7 @@
         <v>589</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>814</v>
@@ -4494,7 +4501,7 @@
         <v>453</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>453</v>
@@ -4514,7 +4521,7 @@
         <v>574</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>574</v>
@@ -4534,7 +4541,7 @@
         <v>598</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>598</v>
@@ -4554,7 +4561,7 @@
         <v>600</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>817</v>
@@ -4574,7 +4581,7 @@
         <v>11</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>685</v>
@@ -4583,10 +4590,10 @@
         <v>14</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -4594,7 +4601,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>38</v>
@@ -4605,8 +4612,8 @@
       <c r="E46" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>901</v>
+      <c r="F46" s="3" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -4614,7 +4621,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>688</v>
@@ -4626,7 +4633,7 @@
         <v>688</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -4634,7 +4641,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>689</v>
@@ -4643,10 +4650,10 @@
         <v>14</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4654,7 +4661,7 @@
         <v>60</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>695</v>
@@ -4665,8 +4672,8 @@
       <c r="E49" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>926</v>
+      <c r="F49" s="3" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -4674,7 +4681,7 @@
         <v>620</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>820</v>
@@ -4686,7 +4693,7 @@
         <v>820</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4694,7 +4701,7 @@
         <v>494</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>494</v>
@@ -4725,8 +4732,8 @@
       <c r="E52" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>922</v>
+      <c r="F52" s="3" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -4734,7 +4741,7 @@
         <v>680</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>680</v>
@@ -4754,7 +4761,7 @@
         <v>13</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>842</v>
+        <v>929</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>17</v>
@@ -4774,7 +4781,7 @@
         <v>17</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>842</v>
+        <v>929</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>17</v>
@@ -4794,7 +4801,7 @@
         <v>23</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>23</v>
@@ -4814,7 +4821,7 @@
         <v>28</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>842</v>
+        <v>929</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>28</v>
@@ -4834,7 +4841,7 @@
         <v>39</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>842</v>
+        <v>929</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>39</v>
@@ -4854,7 +4861,7 @@
         <v>46</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>46</v>
@@ -4874,7 +4881,7 @@
         <v>48</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>842</v>
+        <v>929</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>48</v>
@@ -4894,7 +4901,7 @@
         <v>50</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>50</v>
@@ -4914,7 +4921,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>63</v>
@@ -4925,8 +4932,8 @@
       <c r="E62" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>904</v>
+      <c r="F62" s="3" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4934,7 +4941,7 @@
         <v>64</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>64</v>
@@ -4954,7 +4961,7 @@
         <v>78</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>78</v>
@@ -4974,7 +4981,7 @@
         <v>80</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>80</v>
@@ -4994,7 +5001,7 @@
         <v>84</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>84</v>
@@ -5014,7 +5021,7 @@
         <v>446</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>446</v>
@@ -5034,7 +5041,7 @@
         <v>476</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>476</v>
@@ -5054,7 +5061,7 @@
         <v>478</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>804</v>
@@ -5074,7 +5081,7 @@
         <v>487</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>842</v>
+        <v>929</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>487</v>
@@ -5094,7 +5101,7 @@
         <v>492</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>842</v>
+        <v>929</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>492</v>
@@ -5114,7 +5121,7 @@
         <v>499</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>499</v>
@@ -5134,7 +5141,7 @@
         <v>501</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>501</v>
@@ -5154,7 +5161,7 @@
         <v>503</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>842</v>
+        <v>929</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>503</v>
@@ -5174,7 +5181,7 @@
         <v>508</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>508</v>
@@ -5194,7 +5201,7 @@
         <v>521</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>521</v>
@@ -5223,10 +5230,10 @@
         <v>31</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -5243,10 +5250,10 @@
         <v>31</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>927</v>
+        <v>924</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -5263,10 +5270,10 @@
         <v>31</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -5274,7 +5281,7 @@
         <v>543</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>543</v>
@@ -5294,7 +5301,7 @@
         <v>551</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>551</v>
@@ -5314,7 +5321,7 @@
         <v>572</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>572</v>
@@ -5334,7 +5341,7 @@
         <v>577</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>577</v>
@@ -5354,7 +5361,7 @@
         <v>582</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>582</v>
@@ -5374,7 +5381,7 @@
         <v>587</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>587</v>
@@ -5394,7 +5401,7 @@
         <v>596</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>842</v>
+        <v>929</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>596</v>
@@ -5414,7 +5421,7 @@
         <v>602</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>602</v>
@@ -5434,7 +5441,7 @@
         <v>616</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>616</v>
@@ -5454,7 +5461,7 @@
         <v>618</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>619</v>
@@ -5474,7 +5481,7 @@
         <v>635</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>635</v>
@@ -5494,7 +5501,7 @@
         <v>682</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>682</v>
@@ -5509,7 +5516,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -5529,7 +5536,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>115</v>
       </c>
@@ -5549,7 +5556,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>118</v>
       </c>
@@ -5557,7 +5564,7 @@
         <v>832</v>
       </c>
       <c r="C94" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="D94" t="s">
         <v>31</v>
@@ -5569,7 +5576,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>113</v>
       </c>
@@ -5577,7 +5584,7 @@
         <v>832</v>
       </c>
       <c r="C95" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D95" t="s">
         <v>10</v>
@@ -5589,7 +5596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>121</v>
       </c>
@@ -5609,7 +5616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>123</v>
       </c>
@@ -5629,7 +5636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>125</v>
       </c>
@@ -5649,7 +5656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>127</v>
       </c>
@@ -5669,7 +5676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>131</v>
       </c>
@@ -5689,7 +5696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>133</v>
       </c>
@@ -5709,7 +5716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>135</v>
       </c>
@@ -5729,7 +5736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>137</v>
       </c>
@@ -5749,7 +5756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>139</v>
       </c>
@@ -5769,7 +5776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>141</v>
       </c>
@@ -5789,7 +5796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>143</v>
       </c>
@@ -5809,7 +5816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>145</v>
       </c>
@@ -5829,7 +5836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>147</v>
       </c>
@@ -5849,7 +5856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>149</v>
       </c>
@@ -5869,7 +5876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>151</v>
       </c>
@@ -5889,7 +5896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>153</v>
       </c>
@@ -5909,7 +5916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>155</v>
       </c>
@@ -5929,7 +5936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>157</v>
       </c>
@@ -5949,7 +5956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>158</v>
       </c>
@@ -5969,7 +5976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:6" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>160</v>
       </c>
@@ -5989,7 +5996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>162</v>
       </c>
@@ -6009,7 +6016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>164</v>
       </c>
@@ -6029,7 +6036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>166</v>
       </c>
@@ -6049,7 +6056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>168</v>
       </c>
@@ -6069,7 +6076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>170</v>
       </c>
@@ -6089,7 +6096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>172</v>
       </c>
@@ -6109,7 +6116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>174</v>
       </c>
@@ -6129,7 +6136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>176</v>
       </c>
@@ -6149,7 +6156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>178</v>
       </c>
@@ -6169,7 +6176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>180</v>
       </c>
@@ -6189,7 +6196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>182</v>
       </c>
@@ -6209,7 +6216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>184</v>
       </c>
@@ -6229,7 +6236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>186</v>
       </c>
@@ -6249,7 +6256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>188</v>
       </c>
@@ -6269,7 +6276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>190</v>
       </c>
@@ -6289,7 +6296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>192</v>
       </c>
@@ -6309,7 +6316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>194</v>
       </c>
@@ -6329,7 +6336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>196</v>
       </c>
@@ -6349,7 +6356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>198</v>
       </c>
@@ -6369,7 +6376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>200</v>
       </c>
@@ -6389,7 +6396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>202</v>
       </c>
@@ -6409,7 +6416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>224</v>
       </c>
@@ -6429,7 +6436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>226</v>
       </c>
@@ -6449,7 +6456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>204</v>
       </c>
@@ -6469,7 +6476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>206</v>
       </c>
@@ -6489,7 +6496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>208</v>
       </c>
@@ -6509,7 +6516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>210</v>
       </c>
@@ -6529,7 +6536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>212</v>
       </c>
@@ -6549,7 +6556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>214</v>
       </c>
@@ -6569,7 +6576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>216</v>
       </c>
@@ -6589,7 +6596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>218</v>
       </c>
@@ -6609,7 +6616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>220</v>
       </c>
@@ -6629,7 +6636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>222</v>
       </c>
@@ -6649,7 +6656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>229</v>
       </c>
@@ -6669,7 +6676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>231</v>
       </c>
@@ -6689,7 +6696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>233</v>
       </c>
@@ -6709,7 +6716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>235</v>
       </c>
@@ -6729,7 +6736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>237</v>
       </c>
@@ -6749,7 +6756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>239</v>
       </c>
@@ -6769,7 +6776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>240</v>
       </c>
@@ -6789,7 +6796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>242</v>
       </c>
@@ -6809,7 +6816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>244</v>
       </c>
@@ -6829,7 +6836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>246</v>
       </c>
@@ -6849,7 +6856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>248</v>
       </c>
@@ -6869,7 +6876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>250</v>
       </c>
@@ -6889,7 +6896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>252</v>
       </c>
@@ -6909,7 +6916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>254</v>
       </c>
@@ -6929,7 +6936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>256</v>
       </c>
@@ -6949,7 +6956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>258</v>
       </c>
@@ -6969,7 +6976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>260</v>
       </c>
@@ -6989,7 +6996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>262</v>
       </c>
@@ -7009,7 +7016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>264</v>
       </c>
@@ -7029,7 +7036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>266</v>
       </c>
@@ -7049,7 +7056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>268</v>
       </c>
@@ -7069,7 +7076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>270</v>
       </c>
@@ -7089,7 +7096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>272</v>
       </c>
@@ -7109,7 +7116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>274</v>
       </c>
@@ -7129,7 +7136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>276</v>
       </c>
@@ -7149,7 +7156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>278</v>
       </c>
@@ -7169,7 +7176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>280</v>
       </c>
@@ -7189,7 +7196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>282</v>
       </c>
@@ -7209,7 +7216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>283</v>
       </c>
@@ -7229,7 +7236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>285</v>
       </c>
@@ -7249,7 +7256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>287</v>
       </c>
@@ -7269,7 +7276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>289</v>
       </c>
@@ -7289,7 +7296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>291</v>
       </c>
@@ -7309,7 +7316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>293</v>
       </c>
@@ -7329,7 +7336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>295</v>
       </c>
@@ -7349,7 +7356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>297</v>
       </c>
@@ -7369,7 +7376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>299</v>
       </c>
@@ -7389,7 +7396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>301</v>
       </c>
@@ -7409,7 +7416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>303</v>
       </c>
@@ -7429,7 +7436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>305</v>
       </c>
@@ -7449,7 +7456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>307</v>
       </c>
@@ -7469,7 +7476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>309</v>
       </c>
@@ -7489,7 +7496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>311</v>
       </c>
@@ -7509,7 +7516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>312</v>
       </c>
@@ -7529,7 +7536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>314</v>
       </c>
@@ -7549,7 +7556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>316</v>
       </c>
@@ -7569,7 +7576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>318</v>
       </c>
@@ -7589,7 +7596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:6" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>320</v>
       </c>
@@ -7609,7 +7616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>322</v>
       </c>
@@ -7629,7 +7636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>324</v>
       </c>
@@ -7649,7 +7656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:6" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>326</v>
       </c>
@@ -7669,7 +7676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>328</v>
       </c>
@@ -7689,7 +7696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>330</v>
       </c>
@@ -7709,7 +7716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>332</v>
       </c>
@@ -7729,7 +7736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>334</v>
       </c>
@@ -7749,7 +7756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>335</v>
       </c>
@@ -7769,7 +7776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>337</v>
       </c>
@@ -7789,7 +7796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>339</v>
       </c>
@@ -7809,7 +7816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>341</v>
       </c>
@@ -7829,7 +7836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>343</v>
       </c>
@@ -7849,7 +7856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>345</v>
       </c>
@@ -7869,7 +7876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>347</v>
       </c>
@@ -7889,7 +7896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>349</v>
       </c>
@@ -7909,7 +7916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>351</v>
       </c>
@@ -7929,7 +7936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>353</v>
       </c>
@@ -7949,7 +7956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>355</v>
       </c>
@@ -7969,7 +7976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>357</v>
       </c>
@@ -7989,7 +7996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>359</v>
       </c>
@@ -8009,7 +8016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>361</v>
       </c>
@@ -8029,7 +8036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>363</v>
       </c>
@@ -8049,7 +8056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>365</v>
       </c>
@@ -8069,7 +8076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>367</v>
       </c>
@@ -8089,7 +8096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>369</v>
       </c>
@@ -8109,7 +8116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>371</v>
       </c>
@@ -8129,7 +8136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>129</v>
       </c>
@@ -8149,7 +8156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>373</v>
       </c>
@@ -8169,7 +8176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>374</v>
       </c>
@@ -8189,7 +8196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>376</v>
       </c>
@@ -8209,7 +8216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>378</v>
       </c>
@@ -8229,7 +8236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>380</v>
       </c>
@@ -8249,7 +8256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>382</v>
       </c>
@@ -8269,7 +8276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>384</v>
       </c>
@@ -8289,7 +8296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>386</v>
       </c>
@@ -8309,7 +8316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>388</v>
       </c>
@@ -8329,7 +8336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>390</v>
       </c>
@@ -8349,7 +8356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>392</v>
       </c>
@@ -8369,7 +8376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>394</v>
       </c>
@@ -8389,7 +8396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>396</v>
       </c>
@@ -8409,7 +8416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>401</v>
       </c>
@@ -8429,7 +8436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>527</v>
       </c>
@@ -8449,7 +8456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>403</v>
       </c>
@@ -8469,7 +8476,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>406</v>
       </c>
@@ -8489,7 +8496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>408</v>
       </c>
@@ -8509,7 +8516,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>397</v>
       </c>
@@ -8529,7 +8536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>411</v>
       </c>
@@ -8549,7 +8556,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>399</v>
       </c>
@@ -8569,7 +8576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>414</v>
       </c>
@@ -8589,7 +8596,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>417</v>
       </c>
@@ -8597,7 +8604,7 @@
         <v>832</v>
       </c>
       <c r="C246" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="D246" t="s">
         <v>31</v>
@@ -8609,7 +8616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>419</v>
       </c>
@@ -8629,7 +8636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>421</v>
       </c>
@@ -8649,7 +8656,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>424</v>
       </c>
@@ -8669,7 +8676,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>427</v>
       </c>
@@ -8689,7 +8696,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>510</v>
       </c>
@@ -8709,7 +8716,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>540</v>
       </c>
@@ -8729,7 +8736,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>621</v>
       </c>
@@ -8777,7 +8784,7 @@
         <v>835</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>31</v>
@@ -8786,7 +8793,7 @@
         <v>802</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
@@ -8797,7 +8804,7 @@
         <v>835</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>31</v>
@@ -8817,7 +8824,7 @@
         <v>835</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>31</v>
@@ -8837,7 +8844,7 @@
         <v>835</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>31</v>
@@ -8857,7 +8864,7 @@
         <v>835</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="D259" s="3" t="s">
         <v>31</v>
@@ -8877,7 +8884,7 @@
         <v>835</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>31</v>
@@ -8894,7 +8901,7 @@
         <v>630</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>631</v>
@@ -8914,7 +8921,7 @@
         <v>529</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>530</v>
@@ -8929,12 +8936,12 @@
         <v>531</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>588</v>
       </c>
       <c r="B263" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C263" t="s">
         <v>588</v>
@@ -8946,7 +8953,7 @@
         <v>588</v>
       </c>
       <c r="F263" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
@@ -8954,7 +8961,7 @@
         <v>605</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>819</v>
@@ -8974,7 +8981,7 @@
         <v>637</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>637</v>
@@ -8985,8 +8992,8 @@
       <c r="E265" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="F265" s="2" t="s">
-        <v>902</v>
+      <c r="F265" s="3" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
@@ -8994,7 +9001,7 @@
         <v>545</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>546</v>
@@ -9014,7 +9021,7 @@
         <v>96</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>840</v>
+        <v>930</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>698</v>
@@ -9034,7 +9041,7 @@
         <v>99</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>840</v>
+        <v>930</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>698</v>
@@ -9054,7 +9061,7 @@
         <v>103</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>840</v>
+        <v>930</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>699</v>
@@ -9074,7 +9081,7 @@
         <v>105</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>840</v>
+        <v>930</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>699</v>
@@ -9094,7 +9101,7 @@
         <v>30</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>840</v>
+        <v>30</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>30</v>
@@ -9114,7 +9121,7 @@
         <v>93</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>840</v>
+        <v>670</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>94</v>
@@ -9134,7 +9141,7 @@
         <v>532</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>811</v>
@@ -9143,7 +9150,7 @@
         <v>828</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="F273" s="3" t="s">
         <v>10</v>
@@ -9154,7 +9161,7 @@
         <v>673</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>826</v>
@@ -9174,7 +9181,7 @@
         <v>575</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>575</v>
@@ -9194,7 +9201,7 @@
         <v>670</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>840</v>
+        <v>670</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>670</v>
@@ -9214,10 +9221,10 @@
         <v>82</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="D277" s="3" t="s">
         <v>828</v>
@@ -9234,10 +9241,10 @@
         <v>679</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="D278" s="3" t="s">
         <v>828</v>
@@ -9297,7 +9304,7 @@
         <v>834</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="D281" s="3" t="s">
         <v>31</v>
@@ -9305,16 +9312,16 @@
       <c r="E281" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="F281" s="2" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F281" s="3" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>43</v>
       </c>
       <c r="B282" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C282" t="s">
         <v>690</v>
@@ -9329,12 +9336,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>44</v>
       </c>
       <c r="B283" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C283" t="s">
         <v>44</v>
@@ -9349,12 +9356,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>52</v>
       </c>
       <c r="B284" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C284" t="s">
         <v>691</v>
@@ -9363,21 +9370,21 @@
         <v>6</v>
       </c>
       <c r="E284" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="F284" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>71</v>
       </c>
       <c r="B285" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C285" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="D285" t="s">
         <v>6</v>
@@ -9389,15 +9396,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>74</v>
       </c>
       <c r="B286" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C286" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="D286" t="s">
         <v>6</v>
@@ -9409,12 +9416,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>77</v>
       </c>
       <c r="B287" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C287" t="s">
         <v>696</v>
@@ -9423,18 +9430,18 @@
         <v>6</v>
       </c>
       <c r="E287" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>112</v>
       </c>
       <c r="B288" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C288" t="s">
         <v>112</v>
@@ -9449,12 +9456,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>584</v>
       </c>
       <c r="B289" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C289" t="s">
         <v>584</v>
@@ -9469,12 +9476,12 @@
         <v>586</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>592</v>
       </c>
       <c r="B290" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C290" t="s">
         <v>815</v>
@@ -9489,12 +9496,12 @@
         <v>594</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>595</v>
       </c>
       <c r="B291" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C291" t="s">
         <v>816</v>
@@ -9503,10 +9510,10 @@
         <v>6</v>
       </c>
       <c r="E291" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
@@ -9546,7 +9553,7 @@
         <v>686</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
@@ -9585,8 +9592,8 @@
       <c r="E295" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F295" s="2" t="s">
-        <v>916</v>
+      <c r="F295" s="3" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
@@ -9637,16 +9644,16 @@
         <v>833</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="D298" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>915</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>914</v>
+        <v>911</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
@@ -9717,16 +9724,16 @@
         <v>833</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="D302" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
@@ -9857,7 +9864,7 @@
         <v>833</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>641</v>
@@ -9877,13 +9884,13 @@
         <v>833</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="F310" s="3" t="s">
         <v>639</v>
@@ -9903,10 +9910,10 @@
         <v>14</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="F311" s="2" t="s">
-        <v>910</v>
+        <v>879</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
@@ -9917,13 +9924,13 @@
         <v>833</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="F312" s="3" t="s">
         <v>644</v>
@@ -9937,7 +9944,7 @@
         <v>833</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="D313" s="3" t="s">
         <v>6</v>
@@ -9945,8 +9952,8 @@
       <c r="E313" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="F313" s="2" t="s">
-        <v>911</v>
+      <c r="F313" s="3" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
@@ -9977,7 +9984,7 @@
         <v>833</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>6</v>
@@ -9997,7 +10004,7 @@
         <v>833</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>6</v>
@@ -10017,7 +10024,7 @@
         <v>833</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>6</v>
@@ -10057,36 +10064,36 @@
         <v>833</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="D319" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>833</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="D320" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
@@ -10097,7 +10104,7 @@
         <v>833</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="D321" s="3" t="s">
         <v>14</v>
@@ -10117,7 +10124,7 @@
         <v>833</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="D322" s="3" t="s">
         <v>6</v>
@@ -10145,47 +10152,32 @@
       <c r="E323" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="F323" s="2" t="s">
-        <v>909</v>
+      <c r="F323" s="3" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>833</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="D324" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F324" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Amino acid"/>
-        <filter val="Carbohydrate"/>
-        <filter val="Carotenoid"/>
-        <filter val="Fibre"/>
-        <filter val="Mineral"/>
-        <filter val="Non-nutrient"/>
-        <filter val="Other"/>
-        <filter val="Other macronutrient"/>
-        <filter val="Protein"/>
-        <filter val="Steroid"/>
-        <filter val="Vitamin"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F324">
       <sortCondition ref="B1:B324"/>
     </sortState>

--- a/data-raw/raw/AFCD_nutrient_key_work.xlsx
+++ b/data-raw/raw/AFCD_nutrient_key_work.xlsx
@@ -10,7 +10,7 @@
     <sheet name="AFCD_nutrient_key_work" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AFCD_nutrient_key_work!$A$1:$F$324</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AFCD_nutrient_key_work!$A$1:$F$331</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -3718,8 +3718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A332" sqref="A332"/>
+    <sheetView tabSelected="1" topLeftCell="C296" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M307" sqref="M307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4163,7 +4163,7 @@
         <v>690</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -4783,7 +4783,7 @@
         <v>112</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
@@ -5223,7 +5223,7 @@
         <v>707</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
@@ -5823,7 +5823,7 @@
         <v>731</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E105" t="s">
         <v>217</v>
@@ -7643,7 +7643,7 @@
         <v>395</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>828</v>
       </c>
       <c r="E196" t="s">
         <v>10</v>
@@ -7663,7 +7663,7 @@
         <v>790</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>10</v>
+        <v>828</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>10</v>
@@ -7723,7 +7723,7 @@
         <v>402</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>10</v>
@@ -8203,7 +8203,7 @@
         <v>870</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>10</v>
@@ -8223,7 +8223,7 @@
         <v>842</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>10</v>
@@ -8843,7 +8843,7 @@
         <v>528</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>10</v>
@@ -8883,7 +8883,7 @@
         <v>811</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>828</v>
+        <v>10</v>
       </c>
       <c r="E258" s="3" t="s">
         <v>890</v>
@@ -9223,7 +9223,7 @@
         <v>574</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E275" s="3" t="s">
         <v>10</v>
@@ -10353,6 +10353,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F331"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data-raw/raw/AFCD_nutrient_key_work.xlsx
+++ b/data-raw/raw/AFCD_nutrient_key_work.xlsx
@@ -2812,15 +2812,6 @@
     <t>Energy</t>
   </si>
   <si>
-    <t>energy_total_combined</t>
-  </si>
-  <si>
-    <t>nitrogen_total_combined</t>
-  </si>
-  <si>
-    <t>vitamin_a_combined</t>
-  </si>
-  <si>
     <t>DHA_EPA</t>
   </si>
   <si>
@@ -2852,6 +2843,15 @@
   </si>
   <si>
     <t>Ala</t>
+  </si>
+  <si>
+    <t>Vitamin_a_combined</t>
+  </si>
+  <si>
+    <t>Nitrogen_total_combined</t>
+  </si>
+  <si>
+    <t>Energy_total_combined</t>
   </si>
 </sst>
 </file>
@@ -3718,8 +3718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C296" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M307" sqref="M307"/>
+    <sheetView tabSelected="1" topLeftCell="A307" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A327" sqref="A327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4694,13 +4694,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>931</v>
+        <v>944</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>930</v>
       </c>
       <c r="C49" t="s">
-        <v>931</v>
+        <v>944</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>97</v>
@@ -10234,13 +10234,13 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
-        <v>932</v>
+        <v>943</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>834</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>932</v>
+        <v>943</v>
       </c>
       <c r="D326" s="3" t="s">
         <v>31</v>
@@ -10254,13 +10254,13 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>933</v>
+        <v>942</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>833</v>
       </c>
       <c r="C327" t="s">
-        <v>933</v>
+        <v>942</v>
       </c>
       <c r="D327" s="3" t="s">
         <v>14</v>
@@ -10274,19 +10274,19 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B328" t="s">
         <v>832</v>
       </c>
       <c r="C328" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="D328" t="s">
         <v>31</v>
       </c>
       <c r="E328" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="F328" t="s">
         <v>10</v>
@@ -10294,19 +10294,19 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="B329" t="s">
         <v>832</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D329" t="s">
         <v>31</v>
       </c>
       <c r="E329" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="F329" s="3" t="s">
         <v>10</v>
@@ -10314,19 +10314,19 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B330" t="s">
         <v>832</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="D330" t="s">
         <v>31</v>
       </c>
       <c r="E330" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="F330" s="3" t="s">
         <v>10</v>
@@ -10334,7 +10334,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B331" t="s">
         <v>832</v>
@@ -10346,7 +10346,7 @@
         <v>31</v>
       </c>
       <c r="E331" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="F331" s="3" t="s">
         <v>10</v>

--- a/data-raw/raw/AFCD_nutrient_key_work.xlsx
+++ b/data-raw/raw/AFCD_nutrient_key_work.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="946">
   <si>
     <t>nutrient_orig</t>
   </si>
@@ -2852,6 +2852,9 @@
   </si>
   <si>
     <t>Energy_total_combined</t>
+  </si>
+  <si>
+    <t>Protein_total_combined</t>
   </si>
 </sst>
 </file>
@@ -3716,10 +3719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F331"/>
+  <dimension ref="A1:F332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A327" sqref="A327"/>
+    <sheetView tabSelected="1" topLeftCell="A319" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10063,7 +10066,7 @@
         <v>903</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E317" s="3" t="s">
         <v>877</v>
@@ -10349,6 +10352,26 @@
         <v>937</v>
       </c>
       <c r="F331" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A332" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F332" s="3" t="s">
         <v>10</v>
       </c>
     </row>
